--- a/Data/Map Info.xlsx
+++ b/Data/Map Info.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\astanei\Desktop\Data-Analytics\Projects\final-project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E59E04-2A1A-4B78-9ECC-C6D6B6FC40B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377BBC65-6B92-4086-A67B-9E8DFD12FC39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{152FA791-306C-419F-B20B-F390DB2D74D4}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10200" xr2:uid="{152FA791-306C-419F-B20B-F390DB2D74D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$301</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -702,7 +705,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574B877D-FC67-4E6E-94D8-2B389161C3CC}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -738,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>219.6</v>
+        <v>2.19</v>
       </c>
       <c r="D2">
         <v>13448</v>
@@ -755,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>129.69999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="D3">
         <v>843</v>
@@ -772,7 +777,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>134</v>
+        <v>1.34</v>
       </c>
       <c r="D4">
         <v>12587</v>
@@ -789,7 +794,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>226.5</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D5">
         <v>8669</v>
@@ -806,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>136.9</v>
+        <v>1.36</v>
       </c>
       <c r="D6">
         <v>62394</v>
@@ -823,7 +828,7 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>127.7</v>
+        <v>1.27</v>
       </c>
       <c r="D7">
         <v>7762</v>
@@ -840,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>143.1</v>
+        <v>1.43</v>
       </c>
       <c r="D8">
         <v>7354</v>
@@ -857,7 +862,7 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>154.30000000000001</v>
+        <v>1.54</v>
       </c>
       <c r="D9">
         <v>2053</v>
@@ -874,7 +879,7 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>140.1</v>
+        <v>1.4</v>
       </c>
       <c r="D10">
         <v>47144</v>
@@ -891,7 +896,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>175.5</v>
+        <v>1.75</v>
       </c>
       <c r="D11">
         <v>19543</v>
@@ -908,7 +913,7 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>120.3</v>
+        <v>1.2</v>
       </c>
       <c r="D12">
         <v>2503</v>
@@ -925,7 +930,7 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>150.69999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="D13">
         <v>3061</v>
@@ -942,7 +947,7 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>162</v>
+        <v>1.62</v>
       </c>
       <c r="D14">
         <v>25690</v>
@@ -959,7 +964,7 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>178.8</v>
+        <v>1.78</v>
       </c>
       <c r="D15">
         <v>14555</v>
@@ -976,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="C16">
-        <v>172.9</v>
+        <v>1.72</v>
       </c>
       <c r="D16">
         <v>7505</v>
@@ -993,7 +998,7 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>166</v>
+        <v>1.66</v>
       </c>
       <c r="D17">
         <v>6140</v>
@@ -1010,7 +1015,7 @@
         <v>37</v>
       </c>
       <c r="C18">
-        <v>196.4</v>
+        <v>1.96</v>
       </c>
       <c r="D18">
         <v>10742</v>
@@ -1027,7 +1032,7 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>207.8</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="D19">
         <v>11302</v>
@@ -1044,7 +1049,7 @@
         <v>41</v>
       </c>
       <c r="C20">
-        <v>142.4</v>
+        <v>1.42</v>
       </c>
       <c r="D20">
         <v>2940</v>
@@ -1061,7 +1066,7 @@
         <v>43</v>
       </c>
       <c r="C21">
-        <v>159.30000000000001</v>
+        <v>1.59</v>
       </c>
       <c r="D21">
         <v>11770</v>
@@ -1078,7 +1083,7 @@
         <v>45</v>
       </c>
       <c r="C22">
-        <v>127.2</v>
+        <v>1.27</v>
       </c>
       <c r="D22">
         <v>11761</v>
@@ -1095,7 +1100,7 @@
         <v>47</v>
       </c>
       <c r="C23">
-        <v>193.8</v>
+        <v>1.93</v>
       </c>
       <c r="D23">
         <v>25547</v>
@@ -1112,7 +1117,7 @@
         <v>49</v>
       </c>
       <c r="C24">
-        <v>116.7</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D24">
         <v>8401</v>
@@ -1129,7 +1134,7 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <v>226.7</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D25">
         <v>7997</v>
@@ -1146,7 +1151,7 @@
         <v>53</v>
       </c>
       <c r="C26">
-        <v>187</v>
+        <v>1.87</v>
       </c>
       <c r="D26">
         <v>15018</v>
@@ -1163,7 +1168,7 @@
         <v>55</v>
       </c>
       <c r="C27">
-        <v>157.1</v>
+        <v>1.57</v>
       </c>
       <c r="D27">
         <v>2290</v>
@@ -1180,7 +1185,7 @@
         <v>57</v>
       </c>
       <c r="C28">
-        <v>144.9</v>
+        <v>1.44</v>
       </c>
       <c r="D28">
         <v>3540</v>
@@ -1197,7 +1202,7 @@
         <v>59</v>
       </c>
       <c r="C29">
-        <v>198.1</v>
+        <v>1.98</v>
       </c>
       <c r="D29">
         <v>6864</v>
@@ -1214,7 +1219,7 @@
         <v>61</v>
       </c>
       <c r="C30">
-        <v>143.4</v>
+        <v>1.43</v>
       </c>
       <c r="D30">
         <v>2707</v>
@@ -1231,7 +1236,7 @@
         <v>63</v>
       </c>
       <c r="C31">
-        <v>158</v>
+        <v>1.58</v>
       </c>
       <c r="D31">
         <v>18716</v>
@@ -1248,7 +1253,7 @@
         <v>65</v>
       </c>
       <c r="C32">
-        <v>158.19999999999999</v>
+        <v>1.58</v>
       </c>
       <c r="D32">
         <v>4245</v>
@@ -1265,7 +1270,7 @@
         <v>67</v>
       </c>
       <c r="C33">
-        <v>166.6</v>
+        <v>1.66</v>
       </c>
       <c r="D33">
         <v>43806</v>
@@ -1282,7 +1287,7 @@
         <v>69</v>
       </c>
       <c r="C34">
-        <v>154.69999999999999</v>
+        <v>1.54</v>
       </c>
       <c r="D34">
         <v>19617</v>
@@ -1299,7 +1304,7 @@
         <v>71</v>
       </c>
       <c r="C35">
-        <v>147.69999999999999</v>
+        <v>1.47</v>
       </c>
       <c r="D35">
         <v>1448</v>
@@ -1316,7 +1321,7 @@
         <v>73</v>
       </c>
       <c r="C36">
-        <v>188.8</v>
+        <v>1.88</v>
       </c>
       <c r="D36">
         <v>29160</v>
@@ -1333,7 +1338,7 @@
         <v>75</v>
       </c>
       <c r="C37">
-        <v>231.4</v>
+        <v>2.31</v>
       </c>
       <c r="D37">
         <v>10960</v>
@@ -1350,7 +1355,7 @@
         <v>77</v>
       </c>
       <c r="C38">
-        <v>131</v>
+        <v>1.31</v>
       </c>
       <c r="D38">
         <v>7128</v>
@@ -1367,7 +1372,7 @@
         <v>79</v>
       </c>
       <c r="C39">
-        <v>172.9</v>
+        <v>1.72</v>
       </c>
       <c r="D39">
         <v>32299</v>
@@ -1384,7 +1389,7 @@
         <v>81</v>
       </c>
       <c r="C40">
-        <v>159.30000000000001</v>
+        <v>1.59</v>
       </c>
       <c r="D40">
         <v>2404</v>
@@ -1401,7 +1406,7 @@
         <v>83</v>
       </c>
       <c r="C41">
-        <v>164</v>
+        <v>1.64</v>
       </c>
       <c r="D41">
         <v>10579</v>
@@ -1418,7 +1423,7 @@
         <v>85</v>
       </c>
       <c r="C42">
-        <v>158.1</v>
+        <v>1.58</v>
       </c>
       <c r="D42">
         <v>1840</v>
@@ -1435,7 +1440,7 @@
         <v>87</v>
       </c>
       <c r="C43">
-        <v>202.8</v>
+        <v>2.02</v>
       </c>
       <c r="D43">
         <v>16814</v>
@@ -1452,7 +1457,7 @@
         <v>89</v>
       </c>
       <c r="C44">
-        <v>163.4</v>
+        <v>1.63</v>
       </c>
       <c r="D44">
         <v>46139</v>
@@ -1469,7 +1474,7 @@
         <v>91</v>
       </c>
       <c r="C45">
-        <v>146.5</v>
+        <v>1.46</v>
       </c>
       <c r="D45">
         <v>3882</v>
@@ -1486,7 +1491,7 @@
         <v>93</v>
       </c>
       <c r="C46">
-        <v>151.6</v>
+        <v>1.51</v>
       </c>
       <c r="D46">
         <v>1368</v>
@@ -1503,7 +1508,7 @@
         <v>95</v>
       </c>
       <c r="C47">
-        <v>149.1</v>
+        <v>1.49</v>
       </c>
       <c r="D47">
         <v>15062</v>
@@ -1520,7 +1525,7 @@
         <v>97</v>
       </c>
       <c r="C48">
-        <v>134.80000000000001</v>
+        <v>1.34</v>
       </c>
       <c r="D48">
         <v>11862</v>
@@ -1537,7 +1542,7 @@
         <v>99</v>
       </c>
       <c r="C49">
-        <v>197.4</v>
+        <v>1.97</v>
       </c>
       <c r="D49">
         <v>5087</v>
@@ -1554,7 +1559,7 @@
         <v>101</v>
       </c>
       <c r="C50">
-        <v>158.80000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="D50">
         <v>12241</v>
@@ -1571,7 +1576,7 @@
         <v>103</v>
       </c>
       <c r="C51">
-        <v>150.4</v>
+        <v>1.5</v>
       </c>
       <c r="D51">
         <v>1067</v>
@@ -1588,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>224.7</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D52">
         <v>13473</v>
@@ -1605,7 +1610,7 @@
         <v>7</v>
       </c>
       <c r="C53">
-        <v>129.69999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="D53">
         <v>815</v>
@@ -1622,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="C54">
-        <v>136.4</v>
+        <v>1.36</v>
       </c>
       <c r="D54">
         <v>12455</v>
@@ -1639,7 +1644,7 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>217.4</v>
+        <v>2.17</v>
       </c>
       <c r="D55">
         <v>8171</v>
@@ -1656,7 +1661,7 @@
         <v>13</v>
       </c>
       <c r="C56">
-        <v>139.69999999999999</v>
+        <v>1.39</v>
       </c>
       <c r="D56">
         <v>62547</v>
@@ -1673,7 +1678,7 @@
         <v>15</v>
       </c>
       <c r="C57">
-        <v>124.3</v>
+        <v>1.24</v>
       </c>
       <c r="D57">
         <v>7370</v>
@@ -1690,7 +1695,7 @@
         <v>17</v>
       </c>
       <c r="C58">
-        <v>142.1</v>
+        <v>1.42</v>
       </c>
       <c r="D58">
         <v>7205</v>
@@ -1707,7 +1712,7 @@
         <v>19</v>
       </c>
       <c r="C59">
-        <v>159.1</v>
+        <v>1.59</v>
       </c>
       <c r="D59">
         <v>2030</v>
@@ -1724,7 +1729,7 @@
         <v>21</v>
       </c>
       <c r="C60">
-        <v>143.1</v>
+        <v>1.43</v>
       </c>
       <c r="D60">
         <v>47027</v>
@@ -1741,7 +1746,7 @@
         <v>23</v>
       </c>
       <c r="C61">
-        <v>175.8</v>
+        <v>1.75</v>
       </c>
       <c r="D61">
         <v>18986</v>
@@ -1758,7 +1763,7 @@
         <v>25</v>
       </c>
       <c r="C62">
-        <v>125.6</v>
+        <v>1.25</v>
       </c>
       <c r="D62">
         <v>2570</v>
@@ -1775,7 +1780,7 @@
         <v>27</v>
       </c>
       <c r="C63">
-        <v>157.9</v>
+        <v>1.57</v>
       </c>
       <c r="D63">
         <v>3122</v>
@@ -1792,7 +1797,7 @@
         <v>29</v>
       </c>
       <c r="C64">
-        <v>163.9</v>
+        <v>1.63</v>
       </c>
       <c r="D64">
         <v>25755</v>
@@ -1809,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="C65">
-        <v>180.7</v>
+        <v>1.8</v>
       </c>
       <c r="D65">
         <v>14532</v>
@@ -1826,7 +1831,7 @@
         <v>33</v>
       </c>
       <c r="C66">
-        <v>165.1</v>
+        <v>1.65</v>
       </c>
       <c r="D66">
         <v>7185</v>
@@ -1843,7 +1848,7 @@
         <v>35</v>
       </c>
       <c r="C67">
-        <v>158.9</v>
+        <v>1.58</v>
       </c>
       <c r="D67">
         <v>5823</v>
@@ -1860,7 +1865,7 @@
         <v>37</v>
       </c>
       <c r="C68">
-        <v>198.3</v>
+        <v>1.98</v>
       </c>
       <c r="D68">
         <v>10697</v>
@@ -1877,7 +1882,7 @@
         <v>39</v>
       </c>
       <c r="C69">
-        <v>212.2</v>
+        <v>2.12</v>
       </c>
       <c r="D69">
         <v>11340</v>
@@ -1894,7 +1899,7 @@
         <v>41</v>
       </c>
       <c r="C70">
-        <v>147</v>
+        <v>1.47</v>
       </c>
       <c r="D70">
         <v>2965</v>
@@ -1911,7 +1916,7 @@
         <v>43</v>
       </c>
       <c r="C71">
-        <v>161.9</v>
+        <v>1.61</v>
       </c>
       <c r="D71">
         <v>11683</v>
@@ -1928,7 +1933,7 @@
         <v>45</v>
       </c>
       <c r="C72">
-        <v>131.5</v>
+        <v>1.31</v>
       </c>
       <c r="D72">
         <v>12036</v>
@@ -1945,7 +1950,7 @@
         <v>47</v>
       </c>
       <c r="C73">
-        <v>195</v>
+        <v>1.95</v>
       </c>
       <c r="D73">
         <v>25354</v>
@@ -1962,7 +1967,7 @@
         <v>49</v>
       </c>
       <c r="C74">
-        <v>119</v>
+        <v>1.19</v>
       </c>
       <c r="D74">
         <v>8408</v>
@@ -1979,7 +1984,7 @@
         <v>51</v>
       </c>
       <c r="C75">
-        <v>222.1</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="D75">
         <v>7758</v>
@@ -1996,7 +2001,7 @@
         <v>53</v>
       </c>
       <c r="C76">
-        <v>188.4</v>
+        <v>1.88</v>
       </c>
       <c r="D76">
         <v>14893</v>
@@ -2013,7 +2018,7 @@
         <v>55</v>
       </c>
       <c r="C77">
-        <v>163.19999999999999</v>
+        <v>1.63</v>
       </c>
       <c r="D77">
         <v>2347</v>
@@ -2030,7 +2035,7 @@
         <v>57</v>
       </c>
       <c r="C78">
-        <v>145.69999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="D78">
         <v>3539</v>
@@ -2047,7 +2052,7 @@
         <v>59</v>
       </c>
       <c r="C79">
-        <v>190.7</v>
+        <v>1.9</v>
       </c>
       <c r="D79">
         <v>6393</v>
@@ -2064,7 +2069,7 @@
         <v>61</v>
       </c>
       <c r="C80">
-        <v>151</v>
+        <v>1.51</v>
       </c>
       <c r="D80">
         <v>2786</v>
@@ -2081,7 +2086,7 @@
         <v>63</v>
       </c>
       <c r="C81">
-        <v>163</v>
+        <v>1.63</v>
       </c>
       <c r="D81">
         <v>19047</v>
@@ -2098,7 +2103,7 @@
         <v>65</v>
       </c>
       <c r="C82">
-        <v>148.19999999999999</v>
+        <v>1.48</v>
       </c>
       <c r="D82">
         <v>3935</v>
@@ -2115,7 +2120,7 @@
         <v>67</v>
       </c>
       <c r="C83">
-        <v>171.9</v>
+        <v>1.71</v>
       </c>
       <c r="D83">
         <v>44499</v>
@@ -2132,7 +2137,7 @@
         <v>69</v>
       </c>
       <c r="C84">
-        <v>155.5</v>
+        <v>1.55</v>
       </c>
       <c r="D84">
         <v>19222</v>
@@ -2149,7 +2154,7 @@
         <v>71</v>
       </c>
       <c r="C85">
-        <v>140</v>
+        <v>1.4</v>
       </c>
       <c r="D85">
         <v>1361</v>
@@ -2166,7 +2171,7 @@
         <v>73</v>
       </c>
       <c r="C86">
-        <v>191.1</v>
+        <v>1.91</v>
       </c>
       <c r="D86">
         <v>29220</v>
@@ -2183,7 +2188,7 @@
         <v>75</v>
       </c>
       <c r="C87">
-        <v>228.5</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D87">
         <v>10634</v>
@@ -2200,7 +2205,7 @@
         <v>77</v>
       </c>
       <c r="C88">
-        <v>128.4</v>
+        <v>1.28</v>
       </c>
       <c r="D88">
         <v>6820</v>
@@ -2217,7 +2222,7 @@
         <v>79</v>
       </c>
       <c r="C89">
-        <v>176.1</v>
+        <v>1.76</v>
       </c>
       <c r="D89">
         <v>32768</v>
@@ -2234,7 +2239,7 @@
         <v>81</v>
       </c>
       <c r="C90">
-        <v>158.9</v>
+        <v>1.58</v>
       </c>
       <c r="D90">
         <v>2411</v>
@@ -2251,7 +2256,7 @@
         <v>83</v>
       </c>
       <c r="C91">
-        <v>167</v>
+        <v>1.67</v>
       </c>
       <c r="D91">
         <v>10464</v>
@@ -2268,7 +2273,7 @@
         <v>85</v>
       </c>
       <c r="C92">
-        <v>156.30000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="D92">
         <v>1796</v>
@@ -2285,7 +2290,7 @@
         <v>87</v>
       </c>
       <c r="C93">
-        <v>202.4</v>
+        <v>2.02</v>
       </c>
       <c r="D93">
         <v>16417</v>
@@ -2302,7 +2307,7 @@
         <v>89</v>
       </c>
       <c r="C94">
-        <v>170</v>
+        <v>1.7</v>
       </c>
       <c r="D94">
         <v>46763</v>
@@ -2319,7 +2324,7 @@
         <v>91</v>
       </c>
       <c r="C95">
-        <v>146.4</v>
+        <v>1.46</v>
       </c>
       <c r="D95">
         <v>3749</v>
@@ -2336,7 +2341,7 @@
         <v>93</v>
       </c>
       <c r="C96">
-        <v>150.5</v>
+        <v>1.5</v>
       </c>
       <c r="D96">
         <v>1338</v>
@@ -2353,7 +2358,7 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>147.9</v>
+        <v>1.47</v>
       </c>
       <c r="D97">
         <v>14600</v>
@@ -2370,7 +2375,7 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <v>135.4</v>
+        <v>1.35</v>
       </c>
       <c r="D98">
         <v>11655</v>
@@ -2387,7 +2392,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>196.4</v>
+        <v>1.96</v>
       </c>
       <c r="D99">
         <v>5007</v>
@@ -2404,7 +2409,7 @@
         <v>101</v>
       </c>
       <c r="C100">
-        <v>157.80000000000001</v>
+        <v>1.57</v>
       </c>
       <c r="D100">
         <v>12061</v>
@@ -2421,7 +2426,7 @@
         <v>103</v>
       </c>
       <c r="C101">
-        <v>152.69999999999999</v>
+        <v>1.52</v>
       </c>
       <c r="D101">
         <v>1054</v>
@@ -2438,7 +2443,7 @@
         <v>5</v>
       </c>
       <c r="C102">
-        <v>223.2</v>
+        <v>2.23</v>
       </c>
       <c r="D102" s="1">
         <v>13110</v>
@@ -2455,7 +2460,7 @@
         <v>7</v>
       </c>
       <c r="C103">
-        <v>135</v>
+        <v>1.35</v>
       </c>
       <c r="D103">
         <v>814</v>
@@ -2472,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="C104">
-        <v>141.9</v>
+        <v>1.41</v>
       </c>
       <c r="D104" s="1">
         <v>12398</v>
@@ -2489,7 +2494,7 @@
         <v>11</v>
       </c>
       <c r="C105">
-        <v>223.8</v>
+        <v>2.23</v>
       </c>
       <c r="D105" s="1">
         <v>8270</v>
@@ -2506,7 +2511,7 @@
         <v>13</v>
       </c>
       <c r="C106">
-        <v>142.9</v>
+        <v>1.42</v>
       </c>
       <c r="D106" s="1">
         <v>62797</v>
@@ -2523,7 +2528,7 @@
         <v>15</v>
       </c>
       <c r="C107">
-        <v>122.7</v>
+        <v>1.22</v>
       </c>
       <c r="D107" s="1">
         <v>7060</v>
@@ -2540,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="C108">
-        <v>141.6</v>
+        <v>1.41</v>
       </c>
       <c r="D108" s="1">
         <v>7138</v>
@@ -2557,7 +2562,7 @@
         <v>19</v>
       </c>
       <c r="C109">
-        <v>158.4</v>
+        <v>1.58</v>
       </c>
       <c r="D109" s="1">
         <v>1990</v>
@@ -2574,7 +2579,7 @@
         <v>21</v>
       </c>
       <c r="C110">
-        <v>145.80000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="D110" s="1">
         <v>46440</v>
@@ -2591,7 +2596,7 @@
         <v>23</v>
       </c>
       <c r="C111">
-        <v>175.8</v>
+        <v>1.75</v>
       </c>
       <c r="D111" s="1">
         <v>18389</v>
@@ -2608,7 +2613,7 @@
         <v>25</v>
       </c>
       <c r="C112">
-        <v>129.80000000000001</v>
+        <v>1.29</v>
       </c>
       <c r="D112" s="1">
         <v>2575</v>
@@ -2625,7 +2630,7 @@
         <v>27</v>
       </c>
       <c r="C113">
-        <v>162.4</v>
+        <v>1.62</v>
       </c>
       <c r="D113" s="1">
         <v>3084</v>
@@ -2642,7 +2647,7 @@
         <v>29</v>
       </c>
       <c r="C114">
-        <v>163.30000000000001</v>
+        <v>1.63</v>
       </c>
       <c r="D114" s="1">
         <v>25394</v>
@@ -2659,7 +2664,7 @@
         <v>31</v>
       </c>
       <c r="C115">
-        <v>183.2</v>
+        <v>1.83</v>
       </c>
       <c r="D115" s="1">
         <v>14445</v>
@@ -2676,7 +2681,7 @@
         <v>33</v>
       </c>
       <c r="C116">
-        <v>167.4</v>
+        <v>1.67</v>
       </c>
       <c r="D116" s="1">
         <v>7180</v>
@@ -2693,7 +2698,7 @@
         <v>35</v>
       </c>
       <c r="C117">
-        <v>157.9</v>
+        <v>1.57</v>
       </c>
       <c r="D117" s="1">
         <v>5723</v>
@@ -2710,7 +2715,7 @@
         <v>37</v>
       </c>
       <c r="C118">
-        <v>195.9</v>
+        <v>1.95</v>
       </c>
       <c r="D118" s="1">
         <v>10343</v>
@@ -2727,7 +2732,7 @@
         <v>39</v>
       </c>
       <c r="C119">
-        <v>214.4</v>
+        <v>2.14</v>
       </c>
       <c r="D119" s="1">
         <v>11260</v>
@@ -2744,7 +2749,7 @@
         <v>41</v>
       </c>
       <c r="C120">
-        <v>143.5</v>
+        <v>1.43</v>
       </c>
       <c r="D120" s="1">
         <v>2844</v>
@@ -2761,7 +2766,7 @@
         <v>43</v>
       </c>
       <c r="C121">
-        <v>164.5</v>
+        <v>1.64</v>
       </c>
       <c r="D121" s="1">
         <v>11653</v>
@@ -2778,7 +2783,7 @@
         <v>45</v>
       </c>
       <c r="C122">
-        <v>134.6</v>
+        <v>1.34</v>
       </c>
       <c r="D122" s="1">
         <v>12140</v>
@@ -2795,7 +2800,7 @@
         <v>47</v>
       </c>
       <c r="C123">
-        <v>196.1</v>
+        <v>1.96</v>
       </c>
       <c r="D123" s="1">
         <v>25187</v>
@@ -2812,7 +2817,7 @@
         <v>49</v>
       </c>
       <c r="C124">
-        <v>119.1</v>
+        <v>1.19</v>
       </c>
       <c r="D124" s="1">
         <v>8230</v>
@@ -2829,7 +2834,7 @@
         <v>51</v>
       </c>
       <c r="C125">
-        <v>231.6</v>
+        <v>2.31</v>
       </c>
       <c r="D125" s="1">
         <v>7944</v>
@@ -2846,7 +2851,7 @@
         <v>53</v>
       </c>
       <c r="C126">
-        <v>191.1</v>
+        <v>1.91</v>
       </c>
       <c r="D126" s="1">
         <v>14820</v>
@@ -2863,7 +2868,7 @@
         <v>55</v>
       </c>
       <c r="C127">
-        <v>155</v>
+        <v>1.55</v>
       </c>
       <c r="D127" s="1">
         <v>2164</v>
@@ -2880,7 +2885,7 @@
         <v>57</v>
       </c>
       <c r="C128">
-        <v>149.30000000000001</v>
+        <v>1.49</v>
       </c>
       <c r="D128" s="1">
         <v>3581</v>
@@ -2897,7 +2902,7 @@
         <v>59</v>
       </c>
       <c r="C129">
-        <v>199.3</v>
+        <v>1.99</v>
       </c>
       <c r="D129" s="1">
         <v>6417</v>
@@ -2914,7 +2919,7 @@
         <v>61</v>
       </c>
       <c r="C130">
-        <v>149.69999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="D130" s="1">
         <v>2721</v>
@@ -2931,7 +2936,7 @@
         <v>63</v>
       </c>
       <c r="C131">
-        <v>162.30000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="D131" s="1">
         <v>18840</v>
@@ -2948,7 +2953,7 @@
         <v>65</v>
       </c>
       <c r="C132">
-        <v>151.4</v>
+        <v>1.51</v>
       </c>
       <c r="D132" s="1">
         <v>3896</v>
@@ -2965,7 +2970,7 @@
         <v>67</v>
       </c>
       <c r="C133">
-        <v>171.2</v>
+        <v>1.71</v>
       </c>
       <c r="D133" s="1">
         <v>44092</v>
@@ -2982,7 +2987,7 @@
         <v>69</v>
       </c>
       <c r="C134">
-        <v>156.5</v>
+        <v>1.56</v>
       </c>
       <c r="D134" s="1">
         <v>18808</v>
@@ -2999,7 +3004,7 @@
         <v>71</v>
       </c>
       <c r="C135">
-        <v>137.80000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="D135" s="1">
         <v>1326</v>
@@ -3016,7 +3021,7 @@
         <v>73</v>
       </c>
       <c r="C136">
-        <v>186.2</v>
+        <v>1.86</v>
       </c>
       <c r="D136" s="1">
         <v>28008</v>
@@ -3033,7 +3038,7 @@
         <v>75</v>
       </c>
       <c r="C137">
-        <v>237.2</v>
+        <v>2.37</v>
       </c>
       <c r="D137" s="1">
         <v>10772</v>
@@ -3050,7 +3055,7 @@
         <v>77</v>
       </c>
       <c r="C138">
-        <v>134</v>
+        <v>1.34</v>
       </c>
       <c r="D138" s="1">
         <v>6942</v>
@@ -3067,7 +3072,7 @@
         <v>79</v>
       </c>
       <c r="C139">
-        <v>176</v>
+        <v>1.76</v>
       </c>
       <c r="D139" s="1">
         <v>32312</v>
@@ -3084,7 +3089,7 @@
         <v>81</v>
       </c>
       <c r="C140">
-        <v>155.69999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="D140" s="1">
         <v>2339</v>
@@ -3101,7 +3106,7 @@
         <v>83</v>
       </c>
       <c r="C141">
-        <v>172</v>
+        <v>1.72</v>
       </c>
       <c r="D141" s="1">
         <v>10418</v>
@@ -3118,7 +3123,7 @@
         <v>85</v>
       </c>
       <c r="C142">
-        <v>150.1</v>
+        <v>1.5</v>
       </c>
       <c r="D142" s="1">
         <v>1710</v>
@@ -3135,7 +3140,7 @@
         <v>87</v>
       </c>
       <c r="C143">
-        <v>202.2</v>
+        <v>2.02</v>
       </c>
       <c r="D143" s="1">
         <v>16019</v>
@@ -3152,7 +3157,7 @@
         <v>89</v>
       </c>
       <c r="C144">
-        <v>169.2</v>
+        <v>1.69</v>
       </c>
       <c r="D144" s="1">
         <v>45346</v>
@@ -3169,7 +3174,7 @@
         <v>91</v>
       </c>
       <c r="C145">
-        <v>150.19999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="D145" s="1">
         <v>3749</v>
@@ -3186,7 +3191,7 @@
         <v>93</v>
       </c>
       <c r="C146">
-        <v>152.5</v>
+        <v>1.52</v>
       </c>
       <c r="D146" s="1">
         <v>1332</v>
@@ -3203,7 +3208,7 @@
         <v>95</v>
       </c>
       <c r="C147">
-        <v>154.5</v>
+        <v>1.54</v>
       </c>
       <c r="D147" s="1">
         <v>14861</v>
@@ -3220,7 +3225,7 @@
         <v>97</v>
       </c>
       <c r="C148">
-        <v>138.80000000000001</v>
+        <v>1.38</v>
       </c>
       <c r="D148" s="1">
         <v>11582</v>
@@ -3237,7 +3242,7 @@
         <v>99</v>
       </c>
       <c r="C149">
-        <v>192</v>
+        <v>1.92</v>
       </c>
       <c r="D149" s="1">
         <v>4849</v>
@@ -3254,7 +3259,7 @@
         <v>101</v>
       </c>
       <c r="C150">
-        <v>157.6</v>
+        <v>1.57</v>
       </c>
       <c r="D150" s="1">
         <v>11860</v>
@@ -3271,7 +3276,7 @@
         <v>103</v>
       </c>
       <c r="C151">
-        <v>148.9</v>
+        <v>1.48</v>
       </c>
       <c r="D151" s="1">
         <v>1001</v>
@@ -3288,7 +3293,7 @@
         <v>5</v>
       </c>
       <c r="C152">
-        <v>222.5</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="D152" s="1">
         <v>12832</v>
@@ -3305,7 +3310,7 @@
         <v>7</v>
       </c>
       <c r="C153">
-        <v>141</v>
+        <v>1.41</v>
       </c>
       <c r="D153">
         <v>831</v>
@@ -3322,7 +3327,7 @@
         <v>9</v>
       </c>
       <c r="C154">
-        <v>138.9</v>
+        <v>1.38</v>
       </c>
       <c r="D154" s="1">
         <v>11957</v>
@@ -3339,7 +3344,7 @@
         <v>11</v>
       </c>
       <c r="C155">
-        <v>223.7</v>
+        <v>2.23</v>
       </c>
       <c r="D155" s="1">
         <v>8090</v>
@@ -3356,7 +3361,7 @@
         <v>13</v>
       </c>
       <c r="C156">
-        <v>143.1</v>
+        <v>1.43</v>
       </c>
       <c r="D156" s="1">
         <v>61573</v>
@@ -3373,7 +3378,7 @@
         <v>15</v>
       </c>
       <c r="C157">
-        <v>129.80000000000001</v>
+        <v>1.29</v>
       </c>
       <c r="D157" s="1">
         <v>7277</v>
@@ -3390,7 +3395,7 @@
         <v>17</v>
       </c>
       <c r="C158">
-        <v>144.30000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="D158" s="1">
         <v>7051</v>
@@ -3407,7 +3412,7 @@
         <v>19</v>
       </c>
       <c r="C159">
-        <v>163.19999999999999</v>
+        <v>1.63</v>
       </c>
       <c r="D159" s="1">
         <v>1974</v>
@@ -3424,7 +3429,7 @@
         <v>21</v>
       </c>
       <c r="C160">
-        <v>146.19999999999999</v>
+        <v>1.46</v>
       </c>
       <c r="D160" s="1">
         <v>45659</v>
@@ -3441,7 +3446,7 @@
         <v>23</v>
       </c>
       <c r="C161">
-        <v>179</v>
+        <v>1.79</v>
       </c>
       <c r="D161" s="1">
         <v>18143</v>
@@ -3458,7 +3463,7 @@
         <v>25</v>
       </c>
       <c r="C162">
-        <v>127</v>
+        <v>1.27</v>
       </c>
       <c r="D162" s="1">
         <v>2488</v>
@@ -3475,7 +3480,7 @@
         <v>27</v>
       </c>
       <c r="C163">
-        <v>160</v>
+        <v>1.6</v>
       </c>
       <c r="D163" s="1">
         <v>2969</v>
@@ -3492,7 +3497,7 @@
         <v>29</v>
       </c>
       <c r="C164">
-        <v>165.7</v>
+        <v>1.65</v>
       </c>
       <c r="D164" s="1">
         <v>25013</v>
@@ -3509,7 +3514,7 @@
         <v>31</v>
       </c>
       <c r="C165">
-        <v>180.6</v>
+        <v>1.8</v>
       </c>
       <c r="D165" s="1">
         <v>13952</v>
@@ -3526,7 +3531,7 @@
         <v>33</v>
       </c>
       <c r="C166">
-        <v>162.80000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="D166" s="1">
         <v>6937</v>
@@ -3543,7 +3548,7 @@
         <v>35</v>
       </c>
       <c r="C167">
-        <v>159.19999999999999</v>
+        <v>1.59</v>
       </c>
       <c r="D167" s="1">
         <v>5672</v>
@@ -3560,7 +3565,7 @@
         <v>37</v>
       </c>
       <c r="C168">
-        <v>203</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="D168" s="1">
         <v>10519</v>
@@ -3577,7 +3582,7 @@
         <v>39</v>
       </c>
       <c r="C169">
-        <v>213.1</v>
+        <v>2.13</v>
       </c>
       <c r="D169" s="1">
         <v>10943</v>
@@ -3594,7 +3599,7 @@
         <v>41</v>
       </c>
       <c r="C170">
-        <v>149.5</v>
+        <v>1.49</v>
       </c>
       <c r="D170" s="1">
         <v>2907</v>
@@ -3611,7 +3616,7 @@
         <v>43</v>
       </c>
       <c r="C171">
-        <v>164.3</v>
+        <v>1.64</v>
       </c>
       <c r="D171" s="1">
         <v>11390</v>
@@ -3628,7 +3633,7 @@
         <v>45</v>
       </c>
       <c r="C172">
-        <v>134.80000000000001</v>
+        <v>1.34</v>
       </c>
       <c r="D172" s="1">
         <v>11921</v>
@@ -3645,7 +3650,7 @@
         <v>47</v>
       </c>
       <c r="C173">
-        <v>200.6</v>
+        <v>2</v>
       </c>
       <c r="D173" s="1">
         <v>25304</v>
@@ -3662,7 +3667,7 @@
         <v>49</v>
       </c>
       <c r="C174">
-        <v>114.9</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D174" s="1">
         <v>7825</v>
@@ -3679,7 +3684,7 @@
         <v>51</v>
       </c>
       <c r="C175">
-        <v>233.1</v>
+        <v>2.33</v>
       </c>
       <c r="D175" s="1">
         <v>7865</v>
@@ -3696,7 +3701,7 @@
         <v>53</v>
       </c>
       <c r="C176">
-        <v>192.1</v>
+        <v>1.92</v>
       </c>
       <c r="D176" s="1">
         <v>14579</v>
@@ -3713,7 +3718,7 @@
         <v>55</v>
       </c>
       <c r="C177">
-        <v>154.4</v>
+        <v>1.54</v>
       </c>
       <c r="D177" s="1">
         <v>2138</v>
@@ -3730,7 +3735,7 @@
         <v>57</v>
       </c>
       <c r="C178">
-        <v>140.30000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="D178" s="1">
         <v>3322</v>
@@ -3747,7 +3752,7 @@
         <v>59</v>
       </c>
       <c r="C179">
-        <v>205.9</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D179" s="1">
         <v>6457</v>
@@ -3764,7 +3769,7 @@
         <v>61</v>
       </c>
       <c r="C180">
-        <v>151.1</v>
+        <v>1.51</v>
       </c>
       <c r="D180" s="1">
         <v>2631</v>
@@ -3781,7 +3786,7 @@
         <v>63</v>
       </c>
       <c r="C181">
-        <v>164.7</v>
+        <v>1.64</v>
       </c>
       <c r="D181" s="1">
         <v>18597</v>
@@ -3798,7 +3803,7 @@
         <v>65</v>
       </c>
       <c r="C182">
-        <v>150.6</v>
+        <v>1.5</v>
       </c>
       <c r="D182" s="1">
         <v>3800</v>
@@ -3815,7 +3820,7 @@
         <v>67</v>
       </c>
       <c r="C183">
-        <v>177.8</v>
+        <v>1.77</v>
       </c>
       <c r="D183" s="1">
         <v>44076</v>
@@ -3832,7 +3837,7 @@
         <v>69</v>
       </c>
       <c r="C184">
-        <v>155.80000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="D184" s="1">
         <v>18266</v>
@@ -3849,7 +3854,7 @@
         <v>71</v>
       </c>
       <c r="C185">
-        <v>140.9</v>
+        <v>1.4</v>
       </c>
       <c r="D185" s="1">
         <v>1338</v>
@@ -3866,7 +3871,7 @@
         <v>73</v>
       </c>
       <c r="C186">
-        <v>185.1</v>
+        <v>1.85</v>
       </c>
       <c r="D186" s="1">
         <v>27410</v>
@@ -3883,7 +3888,7 @@
         <v>75</v>
       </c>
       <c r="C187">
-        <v>228.2</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D187" s="1">
         <v>10209</v>
@@ -3900,7 +3905,7 @@
         <v>77</v>
       </c>
       <c r="C188">
-        <v>135</v>
+        <v>1.35</v>
       </c>
       <c r="D188" s="1">
         <v>6968</v>
@@ -3917,7 +3922,7 @@
         <v>79</v>
       </c>
       <c r="C189">
-        <v>176.2</v>
+        <v>1.76</v>
       </c>
       <c r="D189" s="1">
         <v>31990</v>
@@ -3934,7 +3939,7 @@
         <v>81</v>
       </c>
       <c r="C190">
-        <v>152.4</v>
+        <v>1.52</v>
       </c>
       <c r="D190" s="1">
         <v>2256</v>
@@ -3951,7 +3956,7 @@
         <v>83</v>
       </c>
       <c r="C191">
-        <v>173.8</v>
+        <v>1.73</v>
       </c>
       <c r="D191" s="1">
         <v>10195</v>
@@ -3968,7 +3973,7 @@
         <v>85</v>
       </c>
       <c r="C192">
-        <v>153.4</v>
+        <v>1.53</v>
       </c>
       <c r="D192" s="1">
         <v>1729</v>
@@ -3985,7 +3990,7 @@
         <v>87</v>
       </c>
       <c r="C193">
-        <v>198.8</v>
+        <v>1.98</v>
       </c>
       <c r="D193" s="1">
         <v>15429</v>
@@ -4002,7 +4007,7 @@
         <v>89</v>
       </c>
       <c r="C194">
-        <v>167.7</v>
+        <v>1.67</v>
       </c>
       <c r="D194" s="1">
         <v>43772</v>
@@ -4019,7 +4024,7 @@
         <v>91</v>
       </c>
       <c r="C195">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="D195" s="1">
         <v>3636</v>
@@ -4036,7 +4041,7 @@
         <v>93</v>
       </c>
       <c r="C196">
-        <v>158.80000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="D196" s="1">
         <v>1366</v>
@@ -4053,7 +4058,7 @@
         <v>95</v>
       </c>
       <c r="C197">
-        <v>150.69999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="D197" s="1">
         <v>14124</v>
@@ -4070,7 +4075,7 @@
         <v>97</v>
       </c>
       <c r="C198">
-        <v>136.1</v>
+        <v>1.36</v>
       </c>
       <c r="D198" s="1">
         <v>11161</v>
@@ -4087,7 +4092,7 @@
         <v>99</v>
       </c>
       <c r="C199">
-        <v>191</v>
+        <v>1.91</v>
       </c>
       <c r="D199" s="1">
         <v>4767</v>
@@ -4104,7 +4109,7 @@
         <v>101</v>
       </c>
       <c r="C200">
-        <v>154.9</v>
+        <v>1.54</v>
       </c>
       <c r="D200" s="1">
         <v>11526</v>
@@ -4121,7 +4126,7 @@
         <v>103</v>
       </c>
       <c r="C201">
-        <v>157.80000000000001</v>
+        <v>1.57</v>
       </c>
       <c r="D201" s="1">
         <v>1051</v>
@@ -4138,7 +4143,7 @@
         <v>5</v>
       </c>
       <c r="C202">
-        <v>229.7</v>
+        <v>2.29</v>
       </c>
       <c r="D202" s="1">
         <v>12981</v>
@@ -4155,7 +4160,7 @@
         <v>7</v>
       </c>
       <c r="C203">
-        <v>154.1</v>
+        <v>1.54</v>
       </c>
       <c r="D203">
         <v>846</v>
@@ -4172,7 +4177,7 @@
         <v>9</v>
       </c>
       <c r="C204">
-        <v>138.80000000000001</v>
+        <v>1.38</v>
       </c>
       <c r="D204" s="1">
         <v>11458</v>
@@ -4189,7 +4194,7 @@
         <v>11</v>
       </c>
       <c r="C205">
-        <v>223.2</v>
+        <v>2.23</v>
       </c>
       <c r="D205" s="1">
         <v>7938</v>
@@ -4206,7 +4211,7 @@
         <v>13</v>
       </c>
       <c r="C206">
-        <v>145.6</v>
+        <v>1.45</v>
       </c>
       <c r="D206" s="1">
         <v>61289</v>
@@ -4223,7 +4228,7 @@
         <v>15</v>
       </c>
       <c r="C207">
-        <v>128.4</v>
+        <v>1.28</v>
       </c>
       <c r="D207" s="1">
         <v>7009</v>
@@ -4240,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="C208">
-        <v>147.80000000000001</v>
+        <v>1.47</v>
       </c>
       <c r="D208" s="1">
         <v>7205</v>
@@ -4257,7 +4262,7 @@
         <v>19</v>
       </c>
       <c r="C209">
-        <v>165.2</v>
+        <v>1.65</v>
       </c>
       <c r="D209" s="1">
         <v>1940</v>
@@ -4274,7 +4279,7 @@
         <v>21</v>
       </c>
       <c r="C210">
-        <v>149.80000000000001</v>
+        <v>1.49</v>
       </c>
       <c r="D210" s="1">
         <v>45441</v>
@@ -4291,7 +4296,7 @@
         <v>23</v>
       </c>
       <c r="C211">
-        <v>180.2</v>
+        <v>1.8</v>
       </c>
       <c r="D211" s="1">
         <v>17769</v>
@@ -4308,7 +4313,7 @@
         <v>25</v>
       </c>
       <c r="C212">
-        <v>135.6</v>
+        <v>1.35</v>
       </c>
       <c r="D212" s="1">
         <v>2605</v>
@@ -4325,7 +4330,7 @@
         <v>27</v>
       </c>
       <c r="C213">
-        <v>156.4</v>
+        <v>1.56</v>
       </c>
       <c r="D213" s="1">
         <v>2825</v>
@@ -4342,7 +4347,7 @@
         <v>29</v>
       </c>
       <c r="C214">
-        <v>171.5</v>
+        <v>1.71</v>
       </c>
       <c r="D214" s="1">
         <v>25652</v>
@@ -4359,7 +4364,7 @@
         <v>31</v>
       </c>
       <c r="C215">
-        <v>182.3</v>
+        <v>1.82</v>
       </c>
       <c r="D215" s="1">
         <v>13948</v>
@@ -4376,7 +4381,7 @@
         <v>33</v>
       </c>
       <c r="C216">
-        <v>160.9</v>
+        <v>1.6</v>
       </c>
       <c r="D216" s="1">
         <v>6813</v>
@@ -4393,7 +4398,7 @@
         <v>35</v>
       </c>
       <c r="C217">
-        <v>158.5</v>
+        <v>1.58</v>
       </c>
       <c r="D217" s="1">
         <v>5624</v>
@@ -4410,7 +4415,7 @@
         <v>37</v>
       </c>
       <c r="C218">
-        <v>197.8</v>
+        <v>1.97</v>
       </c>
       <c r="D218" s="1">
         <v>10077</v>
@@ -4427,7 +4432,7 @@
         <v>39</v>
       </c>
       <c r="C219">
-        <v>212.1</v>
+        <v>2.12</v>
       </c>
       <c r="D219" s="1">
         <v>10665</v>
@@ -4444,7 +4449,7 @@
         <v>41</v>
       </c>
       <c r="C220">
-        <v>157.30000000000001</v>
+        <v>1.57</v>
       </c>
       <c r="D220" s="1">
         <v>3009</v>
@@ -4461,7 +4466,7 @@
         <v>43</v>
       </c>
       <c r="C221">
-        <v>169.3</v>
+        <v>1.69</v>
       </c>
       <c r="D221" s="1">
         <v>11481</v>
@@ -4478,7 +4483,7 @@
         <v>45</v>
       </c>
       <c r="C222">
-        <v>138.5</v>
+        <v>1.38</v>
       </c>
       <c r="D222" s="1">
         <v>12130</v>
@@ -4495,7 +4500,7 @@
         <v>47</v>
       </c>
       <c r="C223">
-        <v>198.9</v>
+        <v>1.98</v>
       </c>
       <c r="D223" s="1">
         <v>24794</v>
@@ -4512,7 +4517,7 @@
         <v>49</v>
       </c>
       <c r="C224">
-        <v>116.6</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D224" s="1">
         <v>7844</v>
@@ -4529,7 +4534,7 @@
         <v>51</v>
       </c>
       <c r="C225">
-        <v>240.5</v>
+        <v>2.4</v>
       </c>
       <c r="D225" s="1">
         <v>7969</v>
@@ -4546,7 +4551,7 @@
         <v>53</v>
       </c>
       <c r="C226">
-        <v>197.9</v>
+        <v>1.97</v>
       </c>
       <c r="D226" s="1">
         <v>14808</v>
@@ -4563,7 +4568,7 @@
         <v>55</v>
       </c>
       <c r="C227">
-        <v>155.80000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="D227" s="1">
         <v>2104</v>
@@ -4580,7 +4585,7 @@
         <v>57</v>
       </c>
       <c r="C228">
-        <v>154.5</v>
+        <v>1.54</v>
       </c>
       <c r="D228" s="1">
         <v>3591</v>
@@ -4597,7 +4602,7 @@
         <v>59</v>
       </c>
       <c r="C229">
-        <v>200.9</v>
+        <v>2</v>
       </c>
       <c r="D229" s="1">
         <v>6114</v>
@@ -4614,7 +4619,7 @@
         <v>61</v>
       </c>
       <c r="C230">
-        <v>149</v>
+        <v>1.49</v>
       </c>
       <c r="D230" s="1">
         <v>2571</v>
@@ -4631,7 +4636,7 @@
         <v>63</v>
       </c>
       <c r="C231">
-        <v>166.7</v>
+        <v>1.66</v>
       </c>
       <c r="D231" s="1">
         <v>18647</v>
@@ -4648,7 +4653,7 @@
         <v>65</v>
       </c>
       <c r="C232">
-        <v>142.4</v>
+        <v>1.42</v>
       </c>
       <c r="D232" s="1">
         <v>3508</v>
@@ -4665,7 +4670,7 @@
         <v>67</v>
       </c>
       <c r="C233">
-        <v>181.6</v>
+        <v>1.81</v>
       </c>
       <c r="D233" s="1">
         <v>44450</v>
@@ -4682,7 +4687,7 @@
         <v>69</v>
       </c>
       <c r="C234">
-        <v>162.4</v>
+        <v>1.62</v>
       </c>
       <c r="D234" s="1">
         <v>18474</v>
@@ -4699,7 +4704,7 @@
         <v>71</v>
       </c>
       <c r="C235">
-        <v>142.4</v>
+        <v>1.42</v>
       </c>
       <c r="D235" s="1">
         <v>1323</v>
@@ -4716,7 +4721,7 @@
         <v>73</v>
       </c>
       <c r="C236">
-        <v>191.7</v>
+        <v>1.91</v>
       </c>
       <c r="D236" s="1">
         <v>28069</v>
@@ -4733,7 +4738,7 @@
         <v>75</v>
       </c>
       <c r="C237">
-        <v>234</v>
+        <v>2.34</v>
       </c>
       <c r="D237" s="1">
         <v>10310</v>
@@ -4750,7 +4755,7 @@
         <v>77</v>
       </c>
       <c r="C238">
-        <v>136.1</v>
+        <v>1.36</v>
       </c>
       <c r="D238" s="1">
         <v>6859</v>
@@ -4767,7 +4772,7 @@
         <v>79</v>
       </c>
       <c r="C239">
-        <v>177.8</v>
+        <v>1.77</v>
       </c>
       <c r="D239" s="1">
         <v>32042</v>
@@ -4784,7 +4789,7 @@
         <v>81</v>
       </c>
       <c r="C240">
-        <v>160.4</v>
+        <v>1.6</v>
       </c>
       <c r="D240" s="1">
         <v>2371</v>
@@ -4801,7 +4806,7 @@
         <v>83</v>
       </c>
       <c r="C241">
-        <v>177.8</v>
+        <v>1.77</v>
       </c>
       <c r="D241" s="1">
         <v>10092</v>
@@ -4818,7 +4823,7 @@
         <v>85</v>
       </c>
       <c r="C242">
-        <v>150.9</v>
+        <v>1.5</v>
       </c>
       <c r="D242" s="1">
         <v>1711</v>
@@ -4835,7 +4840,7 @@
         <v>87</v>
       </c>
       <c r="C243">
-        <v>207.3</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="D243" s="1">
         <v>15730</v>
@@ -4852,7 +4857,7 @@
         <v>89</v>
       </c>
       <c r="C244">
-        <v>171.6</v>
+        <v>1.71</v>
       </c>
       <c r="D244" s="1">
         <v>43298</v>
@@ -4869,7 +4874,7 @@
         <v>91</v>
       </c>
       <c r="C245">
-        <v>152.9</v>
+        <v>1.52</v>
       </c>
       <c r="D245" s="1">
         <v>3598</v>
@@ -4886,7 +4891,7 @@
         <v>93</v>
       </c>
       <c r="C246">
-        <v>152.5</v>
+        <v>1.52</v>
       </c>
       <c r="D246" s="1">
         <v>1311</v>
@@ -4903,7 +4908,7 @@
         <v>95</v>
       </c>
       <c r="C247">
-        <v>154.19999999999999</v>
+        <v>1.54</v>
       </c>
       <c r="D247" s="1">
         <v>14077</v>
@@ -4920,7 +4925,7 @@
         <v>97</v>
       </c>
       <c r="C248">
-        <v>137.6</v>
+        <v>1.37</v>
       </c>
       <c r="D248" s="1">
         <v>11025</v>
@@ -4937,7 +4942,7 @@
         <v>99</v>
       </c>
       <c r="C249">
-        <v>191.3</v>
+        <v>1.91</v>
       </c>
       <c r="D249" s="1">
         <v>4727</v>
@@ -4954,7 +4959,7 @@
         <v>101</v>
       </c>
       <c r="C250">
-        <v>156</v>
+        <v>1.56</v>
       </c>
       <c r="D250" s="1">
         <v>11473</v>
@@ -4971,7 +4976,7 @@
         <v>103</v>
       </c>
       <c r="C251">
-        <v>159.4</v>
+        <v>1.59</v>
       </c>
       <c r="D251" s="1">
         <v>1030</v>
@@ -4988,7 +4993,7 @@
         <v>5</v>
       </c>
       <c r="C252">
-        <v>224</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D252" s="1">
         <v>12461</v>
@@ -5005,7 +5010,7 @@
         <v>7</v>
       </c>
       <c r="C253">
-        <v>146.6</v>
+        <v>1.46</v>
       </c>
       <c r="D253">
         <v>782</v>
@@ -5022,7 +5027,7 @@
         <v>9</v>
       </c>
       <c r="C254">
-        <v>136.4</v>
+        <v>1.36</v>
       </c>
       <c r="D254" s="1">
         <v>10805</v>
@@ -5039,7 +5044,7 @@
         <v>11</v>
       </c>
       <c r="C255">
-        <v>217.5</v>
+        <v>2.17</v>
       </c>
       <c r="D255" s="1">
         <v>7581</v>
@@ -5056,7 +5061,7 @@
         <v>13</v>
       </c>
       <c r="C256">
-        <v>142.19999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="D256" s="1">
         <v>58189</v>
@@ -5073,7 +5078,7 @@
         <v>15</v>
       </c>
       <c r="C257">
-        <v>130.30000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="D257" s="1">
         <v>6900</v>
@@ -5090,7 +5095,7 @@
         <v>17</v>
       </c>
       <c r="C258">
-        <v>145.6</v>
+        <v>1.45</v>
       </c>
       <c r="D258" s="1">
         <v>7018</v>
@@ -5107,7 +5112,7 @@
         <v>19</v>
       </c>
       <c r="C259">
-        <v>168.7</v>
+        <v>1.68</v>
       </c>
       <c r="D259" s="1">
         <v>1921</v>
@@ -5124,7 +5129,7 @@
         <v>21</v>
       </c>
       <c r="C260">
-        <v>151.30000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="D260" s="1">
         <v>44511</v>
@@ -5141,7 +5146,7 @@
         <v>23</v>
       </c>
       <c r="C261">
-        <v>179.7</v>
+        <v>1.79</v>
       </c>
       <c r="D261" s="1">
         <v>17107</v>
@@ -5158,7 +5163,7 @@
         <v>25</v>
       </c>
       <c r="C262">
-        <v>136.69999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="D262" s="1">
         <v>2528</v>
@@ -5175,7 +5180,7 @@
         <v>27</v>
       </c>
       <c r="C263">
-        <v>152.80000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="D263" s="1">
         <v>2676</v>
@@ -5192,7 +5197,7 @@
         <v>29</v>
       </c>
       <c r="C264">
-        <v>169.7</v>
+        <v>1.69</v>
       </c>
       <c r="D264" s="1">
         <v>25024</v>
@@ -5209,7 +5214,7 @@
         <v>31</v>
       </c>
       <c r="C265">
-        <v>182.7</v>
+        <v>1.82</v>
       </c>
       <c r="D265" s="1">
         <v>13764</v>
@@ -5226,7 +5231,7 @@
         <v>33</v>
       </c>
       <c r="C266">
-        <v>157.30000000000001</v>
+        <v>1.57</v>
       </c>
       <c r="D266" s="1">
         <v>6615</v>
@@ -5243,7 +5248,7 @@
         <v>35</v>
       </c>
       <c r="C267">
-        <v>157.4</v>
+        <v>1.57</v>
       </c>
       <c r="D267" s="1">
         <v>5479</v>
@@ -5260,7 +5265,7 @@
         <v>37</v>
       </c>
       <c r="C268">
-        <v>200.5</v>
+        <v>2</v>
       </c>
       <c r="D268" s="1">
         <v>10013</v>
@@ -5277,7 +5282,7 @@
         <v>39</v>
       </c>
       <c r="C269">
-        <v>216.3</v>
+        <v>2.16</v>
       </c>
       <c r="D269" s="1">
         <v>10647</v>
@@ -5294,7 +5299,7 @@
         <v>41</v>
       </c>
       <c r="C270">
-        <v>147.9</v>
+        <v>1.47</v>
       </c>
       <c r="D270" s="1">
         <v>2776</v>
@@ -5311,7 +5316,7 @@
         <v>43</v>
       </c>
       <c r="C271">
-        <v>167.8</v>
+        <v>1.67</v>
       </c>
       <c r="D271" s="1">
         <v>11135</v>
@@ -5328,7 +5333,7 @@
         <v>45</v>
       </c>
       <c r="C272">
-        <v>137.1</v>
+        <v>1.37</v>
       </c>
       <c r="D272" s="1">
         <v>11817</v>
@@ -5345,7 +5350,7 @@
         <v>47</v>
       </c>
       <c r="C273">
-        <v>200.9</v>
+        <v>2</v>
       </c>
       <c r="D273" s="1">
         <v>24692</v>
@@ -5362,7 +5367,7 @@
         <v>49</v>
       </c>
       <c r="C274">
-        <v>116.5</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D274" s="1">
         <v>7659</v>
@@ -5379,7 +5384,7 @@
         <v>51</v>
       </c>
       <c r="C275">
-        <v>229.9</v>
+        <v>2.29</v>
       </c>
       <c r="D275" s="1">
         <v>7538</v>
@@ -5396,7 +5401,7 @@
         <v>53</v>
       </c>
       <c r="C276">
-        <v>194.7</v>
+        <v>1.94</v>
       </c>
       <c r="D276" s="1">
         <v>14338</v>
@@ -5413,7 +5418,7 @@
         <v>55</v>
       </c>
       <c r="C277">
-        <v>147.80000000000001</v>
+        <v>1.47</v>
       </c>
       <c r="D277" s="1">
         <v>1957</v>
@@ -5430,7 +5435,7 @@
         <v>57</v>
       </c>
       <c r="C278">
-        <v>143</v>
+        <v>1.43</v>
       </c>
       <c r="D278" s="1">
         <v>3296</v>
@@ -5447,7 +5452,7 @@
         <v>59</v>
       </c>
       <c r="C279">
-        <v>197.2</v>
+        <v>1.97</v>
       </c>
       <c r="D279" s="1">
         <v>5761</v>
@@ -5464,7 +5469,7 @@
         <v>61</v>
       </c>
       <c r="C280">
-        <v>147.9</v>
+        <v>1.47</v>
       </c>
       <c r="D280" s="1">
         <v>2464</v>
@@ -5481,7 +5486,7 @@
         <v>63</v>
       </c>
       <c r="C281">
-        <v>166.3</v>
+        <v>1.66</v>
       </c>
       <c r="D281" s="1">
         <v>18319</v>
@@ -5498,7 +5503,7 @@
         <v>65</v>
       </c>
       <c r="C282">
-        <v>143.30000000000001</v>
+        <v>1.43</v>
       </c>
       <c r="D282" s="1">
         <v>3424</v>
@@ -5515,7 +5520,7 @@
         <v>67</v>
       </c>
       <c r="C283">
-        <v>178.3</v>
+        <v>1.78</v>
       </c>
       <c r="D283" s="1">
         <v>43116</v>
@@ -5532,7 +5537,7 @@
         <v>69</v>
       </c>
       <c r="C284">
-        <v>158.69999999999999</v>
+        <v>1.58</v>
       </c>
       <c r="D284" s="1">
         <v>17592</v>
@@ -5549,7 +5554,7 @@
         <v>71</v>
       </c>
       <c r="C285">
-        <v>149.19999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="D285" s="1">
         <v>1381</v>
@@ -5566,7 +5571,7 @@
         <v>73</v>
       </c>
       <c r="C286">
-        <v>186.4</v>
+        <v>1.86</v>
       </c>
       <c r="D286" s="1">
         <v>27000</v>
@@ -5583,7 +5588,7 @@
         <v>75</v>
       </c>
       <c r="C287">
-        <v>228.1</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D287" s="1">
         <v>9868</v>
@@ -5600,7 +5605,7 @@
         <v>77</v>
       </c>
       <c r="C288">
-        <v>132.1</v>
+        <v>1.32</v>
       </c>
       <c r="D288" s="1">
         <v>6524</v>
@@ -5617,7 +5622,7 @@
         <v>79</v>
       </c>
       <c r="C289">
-        <v>175.8</v>
+        <v>1.75</v>
       </c>
       <c r="D289" s="1">
         <v>31353</v>
@@ -5634,7 +5639,7 @@
         <v>81</v>
       </c>
       <c r="C290">
-        <v>160.80000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="D290" s="1">
         <v>2341</v>
@@ -5651,7 +5656,7 @@
         <v>83</v>
       </c>
       <c r="C291">
-        <v>181.1</v>
+        <v>1.81</v>
       </c>
       <c r="D291" s="1">
         <v>9964</v>
@@ -5668,7 +5673,7 @@
         <v>85</v>
       </c>
       <c r="C292">
-        <v>154.6</v>
+        <v>1.54</v>
       </c>
       <c r="D292" s="1">
         <v>1704</v>
@@ -5685,7 +5690,7 @@
         <v>87</v>
       </c>
       <c r="C293">
-        <v>205.6</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D293" s="1">
         <v>15223</v>
@@ -5702,7 +5707,7 @@
         <v>89</v>
       </c>
       <c r="C294">
-        <v>169.9</v>
+        <v>1.69</v>
       </c>
       <c r="D294" s="1">
         <v>41479</v>
@@ -5719,7 +5724,7 @@
         <v>91</v>
       </c>
       <c r="C295">
-        <v>151</v>
+        <v>1.51</v>
       </c>
       <c r="D295" s="1">
         <v>3431</v>
@@ -5736,7 +5741,7 @@
         <v>93</v>
       </c>
       <c r="C296">
-        <v>156.6</v>
+        <v>1.56</v>
       </c>
       <c r="D296" s="1">
         <v>1311</v>
@@ -5753,7 +5758,7 @@
         <v>95</v>
       </c>
       <c r="C297">
-        <v>156.1</v>
+        <v>1.56</v>
       </c>
       <c r="D297" s="1">
         <v>13874</v>
@@ -5770,7 +5775,7 @@
         <v>97</v>
       </c>
       <c r="C298">
-        <v>137.19999999999999</v>
+        <v>1.37</v>
       </c>
       <c r="D298" s="1">
         <v>10710</v>
@@ -5787,7 +5792,7 @@
         <v>99</v>
       </c>
       <c r="C299">
-        <v>192.9</v>
+        <v>1.92</v>
       </c>
       <c r="D299" s="1">
         <v>4692</v>
@@ -5804,7 +5809,7 @@
         <v>101</v>
       </c>
       <c r="C300">
-        <v>155.1</v>
+        <v>1.55</v>
       </c>
       <c r="D300" s="1">
         <v>11229</v>
@@ -5821,7 +5826,7 @@
         <v>103</v>
       </c>
       <c r="C301">
-        <v>162.19999999999999</v>
+        <v>1.62</v>
       </c>
       <c r="D301" s="1">
         <v>1035</v>
@@ -5831,6 +5836,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E301" xr:uid="{8CB68895-0BD3-4A9C-9E33-6777C15B88E8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Map Info.xlsx
+++ b/Data/Map Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\astanei\Desktop\Data-Analytics\Projects\final-project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377BBC65-6B92-4086-A67B-9E8DFD12FC39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56635E45-B884-4D67-BF52-C065CCFE4706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10200" xr2:uid="{152FA791-306C-419F-B20B-F390DB2D74D4}"/>
   </bookViews>
@@ -703,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574B877D-FC67-4E6E-94D8-2B389161C3CC}">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:J301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -743,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2.19</v>
+        <v>219.6</v>
       </c>
       <c r="D2">
         <v>13448</v>
@@ -760,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>1.29</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="D3">
         <v>843</v>
@@ -777,7 +777,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>1.34</v>
+        <v>134</v>
       </c>
       <c r="D4">
         <v>12587</v>
@@ -794,7 +794,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>2.2599999999999998</v>
+        <v>226.5</v>
       </c>
       <c r="D5">
         <v>8669</v>
@@ -811,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>1.36</v>
+        <v>136.9</v>
       </c>
       <c r="D6">
         <v>62394</v>
@@ -828,7 +828,7 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>1.27</v>
+        <v>127.7</v>
       </c>
       <c r="D7">
         <v>7762</v>
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>1.43</v>
+        <v>143.1</v>
       </c>
       <c r="D8">
         <v>7354</v>
@@ -862,7 +862,7 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>1.54</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="D9">
         <v>2053</v>
@@ -879,7 +879,7 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>1.4</v>
+        <v>140.1</v>
       </c>
       <c r="D10">
         <v>47144</v>
@@ -896,7 +896,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>1.75</v>
+        <v>175.5</v>
       </c>
       <c r="D11">
         <v>19543</v>
@@ -913,7 +913,7 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>1.2</v>
+        <v>120.3</v>
       </c>
       <c r="D12">
         <v>2503</v>
@@ -930,7 +930,7 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>150.69999999999999</v>
       </c>
       <c r="D13">
         <v>3061</v>
@@ -947,7 +947,7 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>1.62</v>
+        <v>162</v>
       </c>
       <c r="D14">
         <v>25690</v>
@@ -964,7 +964,7 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>1.78</v>
+        <v>178.8</v>
       </c>
       <c r="D15">
         <v>14555</v>
@@ -981,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="C16">
-        <v>1.72</v>
+        <v>172.9</v>
       </c>
       <c r="D16">
         <v>7505</v>
@@ -998,7 +998,7 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>1.66</v>
+        <v>166</v>
       </c>
       <c r="D17">
         <v>6140</v>
@@ -1015,7 +1015,7 @@
         <v>37</v>
       </c>
       <c r="C18">
-        <v>1.96</v>
+        <v>196.4</v>
       </c>
       <c r="D18">
         <v>10742</v>
@@ -1032,7 +1032,7 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2.0699999999999998</v>
+        <v>207.8</v>
       </c>
       <c r="D19">
         <v>11302</v>
@@ -1049,7 +1049,7 @@
         <v>41</v>
       </c>
       <c r="C20">
-        <v>1.42</v>
+        <v>142.4</v>
       </c>
       <c r="D20">
         <v>2940</v>
@@ -1066,7 +1066,7 @@
         <v>43</v>
       </c>
       <c r="C21">
-        <v>1.59</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="D21">
         <v>11770</v>
@@ -1083,7 +1083,7 @@
         <v>45</v>
       </c>
       <c r="C22">
-        <v>1.27</v>
+        <v>127.2</v>
       </c>
       <c r="D22">
         <v>11761</v>
@@ -1100,7 +1100,7 @@
         <v>47</v>
       </c>
       <c r="C23">
-        <v>1.93</v>
+        <v>193.8</v>
       </c>
       <c r="D23">
         <v>25547</v>
@@ -1117,7 +1117,7 @@
         <v>49</v>
       </c>
       <c r="C24">
-        <v>1.1599999999999999</v>
+        <v>116.7</v>
       </c>
       <c r="D24">
         <v>8401</v>
@@ -1134,7 +1134,7 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <v>2.2599999999999998</v>
+        <v>226.7</v>
       </c>
       <c r="D25">
         <v>7997</v>
@@ -1151,7 +1151,7 @@
         <v>53</v>
       </c>
       <c r="C26">
-        <v>1.87</v>
+        <v>187</v>
       </c>
       <c r="D26">
         <v>15018</v>
@@ -1168,7 +1168,7 @@
         <v>55</v>
       </c>
       <c r="C27">
-        <v>1.57</v>
+        <v>157.1</v>
       </c>
       <c r="D27">
         <v>2290</v>
@@ -1185,7 +1185,7 @@
         <v>57</v>
       </c>
       <c r="C28">
-        <v>1.44</v>
+        <v>144.9</v>
       </c>
       <c r="D28">
         <v>3540</v>
@@ -1202,7 +1202,7 @@
         <v>59</v>
       </c>
       <c r="C29">
-        <v>1.98</v>
+        <v>198.1</v>
       </c>
       <c r="D29">
         <v>6864</v>
@@ -1219,7 +1219,7 @@
         <v>61</v>
       </c>
       <c r="C30">
-        <v>1.43</v>
+        <v>143.4</v>
       </c>
       <c r="D30">
         <v>2707</v>
@@ -1236,7 +1236,7 @@
         <v>63</v>
       </c>
       <c r="C31">
-        <v>1.58</v>
+        <v>158</v>
       </c>
       <c r="D31">
         <v>18716</v>
@@ -1253,7 +1253,7 @@
         <v>65</v>
       </c>
       <c r="C32">
-        <v>1.58</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="D32">
         <v>4245</v>
@@ -1270,7 +1270,7 @@
         <v>67</v>
       </c>
       <c r="C33">
-        <v>1.66</v>
+        <v>166.6</v>
       </c>
       <c r="D33">
         <v>43806</v>
@@ -1287,7 +1287,7 @@
         <v>69</v>
       </c>
       <c r="C34">
-        <v>1.54</v>
+        <v>154.69999999999999</v>
       </c>
       <c r="D34">
         <v>19617</v>
@@ -1304,7 +1304,7 @@
         <v>71</v>
       </c>
       <c r="C35">
-        <v>1.47</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="D35">
         <v>1448</v>
@@ -1321,7 +1321,7 @@
         <v>73</v>
       </c>
       <c r="C36">
-        <v>1.88</v>
+        <v>188.8</v>
       </c>
       <c r="D36">
         <v>29160</v>
@@ -1338,7 +1338,7 @@
         <v>75</v>
       </c>
       <c r="C37">
-        <v>2.31</v>
+        <v>231.4</v>
       </c>
       <c r="D37">
         <v>10960</v>
@@ -1355,7 +1355,7 @@
         <v>77</v>
       </c>
       <c r="C38">
-        <v>1.31</v>
+        <v>131</v>
       </c>
       <c r="D38">
         <v>7128</v>
@@ -1372,7 +1372,7 @@
         <v>79</v>
       </c>
       <c r="C39">
-        <v>1.72</v>
+        <v>172.9</v>
       </c>
       <c r="D39">
         <v>32299</v>
@@ -1389,7 +1389,7 @@
         <v>81</v>
       </c>
       <c r="C40">
-        <v>1.59</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="D40">
         <v>2404</v>
@@ -1406,7 +1406,7 @@
         <v>83</v>
       </c>
       <c r="C41">
-        <v>1.64</v>
+        <v>164</v>
       </c>
       <c r="D41">
         <v>10579</v>
@@ -1423,7 +1423,7 @@
         <v>85</v>
       </c>
       <c r="C42">
-        <v>1.58</v>
+        <v>158.1</v>
       </c>
       <c r="D42">
         <v>1840</v>
@@ -1440,7 +1440,7 @@
         <v>87</v>
       </c>
       <c r="C43">
-        <v>2.02</v>
+        <v>202.8</v>
       </c>
       <c r="D43">
         <v>16814</v>
@@ -1457,7 +1457,7 @@
         <v>89</v>
       </c>
       <c r="C44">
-        <v>1.63</v>
+        <v>163.4</v>
       </c>
       <c r="D44">
         <v>46139</v>
@@ -1474,7 +1474,7 @@
         <v>91</v>
       </c>
       <c r="C45">
-        <v>1.46</v>
+        <v>146.5</v>
       </c>
       <c r="D45">
         <v>3882</v>
@@ -1491,7 +1491,7 @@
         <v>93</v>
       </c>
       <c r="C46">
-        <v>1.51</v>
+        <v>151.6</v>
       </c>
       <c r="D46">
         <v>1368</v>
@@ -1508,7 +1508,7 @@
         <v>95</v>
       </c>
       <c r="C47">
-        <v>1.49</v>
+        <v>149.1</v>
       </c>
       <c r="D47">
         <v>15062</v>
@@ -1525,7 +1525,7 @@
         <v>97</v>
       </c>
       <c r="C48">
-        <v>1.34</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="D48">
         <v>11862</v>
@@ -1542,7 +1542,7 @@
         <v>99</v>
       </c>
       <c r="C49">
-        <v>1.97</v>
+        <v>197.4</v>
       </c>
       <c r="D49">
         <v>5087</v>
@@ -1559,7 +1559,7 @@
         <v>101</v>
       </c>
       <c r="C50">
-        <v>1.58</v>
+        <v>158.80000000000001</v>
       </c>
       <c r="D50">
         <v>12241</v>
@@ -1576,7 +1576,7 @@
         <v>103</v>
       </c>
       <c r="C51">
-        <v>1.5</v>
+        <v>150.4</v>
       </c>
       <c r="D51">
         <v>1067</v>
@@ -1593,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>2.2400000000000002</v>
+        <v>224.7</v>
       </c>
       <c r="D52">
         <v>13473</v>
@@ -1610,7 +1610,7 @@
         <v>7</v>
       </c>
       <c r="C53">
-        <v>1.29</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="D53">
         <v>815</v>
@@ -1627,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="C54">
-        <v>1.36</v>
+        <v>136.4</v>
       </c>
       <c r="D54">
         <v>12455</v>
@@ -1644,7 +1644,7 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>2.17</v>
+        <v>217.4</v>
       </c>
       <c r="D55">
         <v>8171</v>
@@ -1661,7 +1661,7 @@
         <v>13</v>
       </c>
       <c r="C56">
-        <v>1.39</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="D56">
         <v>62547</v>
@@ -1678,7 +1678,7 @@
         <v>15</v>
       </c>
       <c r="C57">
-        <v>1.24</v>
+        <v>124.3</v>
       </c>
       <c r="D57">
         <v>7370</v>
@@ -1695,7 +1695,7 @@
         <v>17</v>
       </c>
       <c r="C58">
-        <v>1.42</v>
+        <v>142.1</v>
       </c>
       <c r="D58">
         <v>7205</v>
@@ -1712,7 +1712,7 @@
         <v>19</v>
       </c>
       <c r="C59">
-        <v>1.59</v>
+        <v>159.1</v>
       </c>
       <c r="D59">
         <v>2030</v>
@@ -1729,7 +1729,7 @@
         <v>21</v>
       </c>
       <c r="C60">
-        <v>1.43</v>
+        <v>143.1</v>
       </c>
       <c r="D60">
         <v>47027</v>
@@ -1746,7 +1746,7 @@
         <v>23</v>
       </c>
       <c r="C61">
-        <v>1.75</v>
+        <v>175.8</v>
       </c>
       <c r="D61">
         <v>18986</v>
@@ -1763,7 +1763,7 @@
         <v>25</v>
       </c>
       <c r="C62">
-        <v>1.25</v>
+        <v>125.6</v>
       </c>
       <c r="D62">
         <v>2570</v>
@@ -1780,7 +1780,7 @@
         <v>27</v>
       </c>
       <c r="C63">
-        <v>1.57</v>
+        <v>157.9</v>
       </c>
       <c r="D63">
         <v>3122</v>
@@ -1797,7 +1797,7 @@
         <v>29</v>
       </c>
       <c r="C64">
-        <v>1.63</v>
+        <v>163.9</v>
       </c>
       <c r="D64">
         <v>25755</v>
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="C65">
-        <v>1.8</v>
+        <v>180.7</v>
       </c>
       <c r="D65">
         <v>14532</v>
@@ -1831,7 +1831,7 @@
         <v>33</v>
       </c>
       <c r="C66">
-        <v>1.65</v>
+        <v>165.1</v>
       </c>
       <c r="D66">
         <v>7185</v>
@@ -1848,7 +1848,7 @@
         <v>35</v>
       </c>
       <c r="C67">
-        <v>1.58</v>
+        <v>158.9</v>
       </c>
       <c r="D67">
         <v>5823</v>
@@ -1865,7 +1865,7 @@
         <v>37</v>
       </c>
       <c r="C68">
-        <v>1.98</v>
+        <v>198.3</v>
       </c>
       <c r="D68">
         <v>10697</v>
@@ -1882,7 +1882,7 @@
         <v>39</v>
       </c>
       <c r="C69">
-        <v>2.12</v>
+        <v>212.2</v>
       </c>
       <c r="D69">
         <v>11340</v>
@@ -1899,7 +1899,7 @@
         <v>41</v>
       </c>
       <c r="C70">
-        <v>1.47</v>
+        <v>147</v>
       </c>
       <c r="D70">
         <v>2965</v>
@@ -1916,7 +1916,7 @@
         <v>43</v>
       </c>
       <c r="C71">
-        <v>1.61</v>
+        <v>161.9</v>
       </c>
       <c r="D71">
         <v>11683</v>
@@ -1933,7 +1933,7 @@
         <v>45</v>
       </c>
       <c r="C72">
-        <v>1.31</v>
+        <v>131.5</v>
       </c>
       <c r="D72">
         <v>12036</v>
@@ -1950,7 +1950,7 @@
         <v>47</v>
       </c>
       <c r="C73">
-        <v>1.95</v>
+        <v>195</v>
       </c>
       <c r="D73">
         <v>25354</v>
@@ -1967,7 +1967,7 @@
         <v>49</v>
       </c>
       <c r="C74">
-        <v>1.19</v>
+        <v>119</v>
       </c>
       <c r="D74">
         <v>8408</v>
@@ -1984,7 +1984,7 @@
         <v>51</v>
       </c>
       <c r="C75">
-        <v>2.2200000000000002</v>
+        <v>222.1</v>
       </c>
       <c r="D75">
         <v>7758</v>
@@ -2001,7 +2001,7 @@
         <v>53</v>
       </c>
       <c r="C76">
-        <v>1.88</v>
+        <v>188.4</v>
       </c>
       <c r="D76">
         <v>14893</v>
@@ -2018,7 +2018,7 @@
         <v>55</v>
       </c>
       <c r="C77">
-        <v>1.63</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="D77">
         <v>2347</v>
@@ -2035,7 +2035,7 @@
         <v>57</v>
       </c>
       <c r="C78">
-        <v>1.45</v>
+        <v>145.69999999999999</v>
       </c>
       <c r="D78">
         <v>3539</v>
@@ -2052,7 +2052,7 @@
         <v>59</v>
       </c>
       <c r="C79">
-        <v>1.9</v>
+        <v>190.7</v>
       </c>
       <c r="D79">
         <v>6393</v>
@@ -2069,7 +2069,7 @@
         <v>61</v>
       </c>
       <c r="C80">
-        <v>1.51</v>
+        <v>151</v>
       </c>
       <c r="D80">
         <v>2786</v>
@@ -2086,7 +2086,7 @@
         <v>63</v>
       </c>
       <c r="C81">
-        <v>1.63</v>
+        <v>163</v>
       </c>
       <c r="D81">
         <v>19047</v>
@@ -2103,7 +2103,7 @@
         <v>65</v>
       </c>
       <c r="C82">
-        <v>1.48</v>
+        <v>148.19999999999999</v>
       </c>
       <c r="D82">
         <v>3935</v>
@@ -2120,7 +2120,7 @@
         <v>67</v>
       </c>
       <c r="C83">
-        <v>1.71</v>
+        <v>171.9</v>
       </c>
       <c r="D83">
         <v>44499</v>
@@ -2137,7 +2137,7 @@
         <v>69</v>
       </c>
       <c r="C84">
-        <v>1.55</v>
+        <v>155.5</v>
       </c>
       <c r="D84">
         <v>19222</v>
@@ -2154,7 +2154,7 @@
         <v>71</v>
       </c>
       <c r="C85">
-        <v>1.4</v>
+        <v>140</v>
       </c>
       <c r="D85">
         <v>1361</v>
@@ -2171,7 +2171,7 @@
         <v>73</v>
       </c>
       <c r="C86">
-        <v>1.91</v>
+        <v>191.1</v>
       </c>
       <c r="D86">
         <v>29220</v>
@@ -2188,7 +2188,7 @@
         <v>75</v>
       </c>
       <c r="C87">
-        <v>2.2799999999999998</v>
+        <v>228.5</v>
       </c>
       <c r="D87">
         <v>10634</v>
@@ -2205,7 +2205,7 @@
         <v>77</v>
       </c>
       <c r="C88">
-        <v>1.28</v>
+        <v>128.4</v>
       </c>
       <c r="D88">
         <v>6820</v>
@@ -2222,7 +2222,7 @@
         <v>79</v>
       </c>
       <c r="C89">
-        <v>1.76</v>
+        <v>176.1</v>
       </c>
       <c r="D89">
         <v>32768</v>
@@ -2239,7 +2239,7 @@
         <v>81</v>
       </c>
       <c r="C90">
-        <v>1.58</v>
+        <v>158.9</v>
       </c>
       <c r="D90">
         <v>2411</v>
@@ -2256,7 +2256,7 @@
         <v>83</v>
       </c>
       <c r="C91">
-        <v>1.67</v>
+        <v>167</v>
       </c>
       <c r="D91">
         <v>10464</v>
@@ -2273,7 +2273,7 @@
         <v>85</v>
       </c>
       <c r="C92">
-        <v>1.56</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="D92">
         <v>1796</v>
@@ -2290,7 +2290,7 @@
         <v>87</v>
       </c>
       <c r="C93">
-        <v>2.02</v>
+        <v>202.4</v>
       </c>
       <c r="D93">
         <v>16417</v>
@@ -2307,7 +2307,7 @@
         <v>89</v>
       </c>
       <c r="C94">
-        <v>1.7</v>
+        <v>170</v>
       </c>
       <c r="D94">
         <v>46763</v>
@@ -2324,7 +2324,7 @@
         <v>91</v>
       </c>
       <c r="C95">
-        <v>1.46</v>
+        <v>146.4</v>
       </c>
       <c r="D95">
         <v>3749</v>
@@ -2341,7 +2341,7 @@
         <v>93</v>
       </c>
       <c r="C96">
-        <v>1.5</v>
+        <v>150.5</v>
       </c>
       <c r="D96">
         <v>1338</v>
@@ -2350,7 +2350,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2018</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>1.47</v>
+        <v>147.9</v>
       </c>
       <c r="D97">
         <v>14600</v>
@@ -2367,7 +2367,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>2018</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <v>1.35</v>
+        <v>135.4</v>
       </c>
       <c r="D98">
         <v>11655</v>
@@ -2384,7 +2384,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2018</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>1.96</v>
+        <v>196.4</v>
       </c>
       <c r="D99">
         <v>5007</v>
@@ -2401,7 +2401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2018</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>101</v>
       </c>
       <c r="C100">
-        <v>1.57</v>
+        <v>157.80000000000001</v>
       </c>
       <c r="D100">
         <v>12061</v>
@@ -2418,7 +2418,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2018</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>103</v>
       </c>
       <c r="C101">
-        <v>1.52</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="D101">
         <v>1054</v>
@@ -2435,7 +2435,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>2017</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>5</v>
       </c>
       <c r="C102">
-        <v>2.23</v>
+        <v>223.2</v>
       </c>
       <c r="D102" s="1">
         <v>13110</v>
@@ -2451,8 +2451,9 @@
       <c r="E102" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>2017</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="C103">
-        <v>1.35</v>
+        <v>135</v>
       </c>
       <c r="D103">
         <v>814</v>
@@ -2469,7 +2470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>2017</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>9</v>
       </c>
       <c r="C104">
-        <v>1.41</v>
+        <v>141.9</v>
       </c>
       <c r="D104" s="1">
         <v>12398</v>
@@ -2485,8 +2486,9 @@
       <c r="E104" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>2017</v>
       </c>
@@ -2494,7 +2496,7 @@
         <v>11</v>
       </c>
       <c r="C105">
-        <v>2.23</v>
+        <v>223.8</v>
       </c>
       <c r="D105" s="1">
         <v>8270</v>
@@ -2502,8 +2504,9 @@
       <c r="E105" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>2017</v>
       </c>
@@ -2511,7 +2514,7 @@
         <v>13</v>
       </c>
       <c r="C106">
-        <v>1.42</v>
+        <v>142.9</v>
       </c>
       <c r="D106" s="1">
         <v>62797</v>
@@ -2519,8 +2522,9 @@
       <c r="E106" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>2017</v>
       </c>
@@ -2528,7 +2532,7 @@
         <v>15</v>
       </c>
       <c r="C107">
-        <v>1.22</v>
+        <v>122.7</v>
       </c>
       <c r="D107" s="1">
         <v>7060</v>
@@ -2536,8 +2540,9 @@
       <c r="E107" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>2017</v>
       </c>
@@ -2545,7 +2550,7 @@
         <v>17</v>
       </c>
       <c r="C108">
-        <v>1.41</v>
+        <v>141.6</v>
       </c>
       <c r="D108" s="1">
         <v>7138</v>
@@ -2553,8 +2558,9 @@
       <c r="E108" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>2017</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>19</v>
       </c>
       <c r="C109">
-        <v>1.58</v>
+        <v>158.4</v>
       </c>
       <c r="D109" s="1">
         <v>1990</v>
@@ -2570,8 +2576,9 @@
       <c r="E109" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>2017</v>
       </c>
@@ -2579,7 +2586,7 @@
         <v>21</v>
       </c>
       <c r="C110">
-        <v>1.45</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="D110" s="1">
         <v>46440</v>
@@ -2587,8 +2594,9 @@
       <c r="E110" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>2017</v>
       </c>
@@ -2596,7 +2604,7 @@
         <v>23</v>
       </c>
       <c r="C111">
-        <v>1.75</v>
+        <v>175.8</v>
       </c>
       <c r="D111" s="1">
         <v>18389</v>
@@ -2604,8 +2612,9 @@
       <c r="E111" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>2017</v>
       </c>
@@ -2613,7 +2622,7 @@
         <v>25</v>
       </c>
       <c r="C112">
-        <v>1.29</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="D112" s="1">
         <v>2575</v>
@@ -2621,8 +2630,9 @@
       <c r="E112" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>2017</v>
       </c>
@@ -2630,7 +2640,7 @@
         <v>27</v>
       </c>
       <c r="C113">
-        <v>1.62</v>
+        <v>162.4</v>
       </c>
       <c r="D113" s="1">
         <v>3084</v>
@@ -2638,8 +2648,9 @@
       <c r="E113" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2017</v>
       </c>
@@ -2647,7 +2658,7 @@
         <v>29</v>
       </c>
       <c r="C114">
-        <v>1.63</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="D114" s="1">
         <v>25394</v>
@@ -2655,8 +2666,9 @@
       <c r="E114" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>2017</v>
       </c>
@@ -2664,7 +2676,7 @@
         <v>31</v>
       </c>
       <c r="C115">
-        <v>1.83</v>
+        <v>183.2</v>
       </c>
       <c r="D115" s="1">
         <v>14445</v>
@@ -2672,8 +2684,9 @@
       <c r="E115" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>2017</v>
       </c>
@@ -2681,7 +2694,7 @@
         <v>33</v>
       </c>
       <c r="C116">
-        <v>1.67</v>
+        <v>167.4</v>
       </c>
       <c r="D116" s="1">
         <v>7180</v>
@@ -2689,8 +2702,9 @@
       <c r="E116" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>2017</v>
       </c>
@@ -2698,7 +2712,7 @@
         <v>35</v>
       </c>
       <c r="C117">
-        <v>1.57</v>
+        <v>157.9</v>
       </c>
       <c r="D117" s="1">
         <v>5723</v>
@@ -2706,8 +2720,9 @@
       <c r="E117" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>2017</v>
       </c>
@@ -2715,7 +2730,7 @@
         <v>37</v>
       </c>
       <c r="C118">
-        <v>1.95</v>
+        <v>195.9</v>
       </c>
       <c r="D118" s="1">
         <v>10343</v>
@@ -2723,8 +2738,9 @@
       <c r="E118" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>2017</v>
       </c>
@@ -2732,7 +2748,7 @@
         <v>39</v>
       </c>
       <c r="C119">
-        <v>2.14</v>
+        <v>214.4</v>
       </c>
       <c r="D119" s="1">
         <v>11260</v>
@@ -2740,8 +2756,9 @@
       <c r="E119" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J119" s="1"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>2017</v>
       </c>
@@ -2749,7 +2766,7 @@
         <v>41</v>
       </c>
       <c r="C120">
-        <v>1.43</v>
+        <v>143.5</v>
       </c>
       <c r="D120" s="1">
         <v>2844</v>
@@ -2757,8 +2774,9 @@
       <c r="E120" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>2017</v>
       </c>
@@ -2766,7 +2784,7 @@
         <v>43</v>
       </c>
       <c r="C121">
-        <v>1.64</v>
+        <v>164.5</v>
       </c>
       <c r="D121" s="1">
         <v>11653</v>
@@ -2774,8 +2792,9 @@
       <c r="E121" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>2017</v>
       </c>
@@ -2783,7 +2802,7 @@
         <v>45</v>
       </c>
       <c r="C122">
-        <v>1.34</v>
+        <v>134.6</v>
       </c>
       <c r="D122" s="1">
         <v>12140</v>
@@ -2791,8 +2810,9 @@
       <c r="E122" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>2017</v>
       </c>
@@ -2800,7 +2820,7 @@
         <v>47</v>
       </c>
       <c r="C123">
-        <v>1.96</v>
+        <v>196.1</v>
       </c>
       <c r="D123" s="1">
         <v>25187</v>
@@ -2808,8 +2828,9 @@
       <c r="E123" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>2017</v>
       </c>
@@ -2817,7 +2838,7 @@
         <v>49</v>
       </c>
       <c r="C124">
-        <v>1.19</v>
+        <v>119.1</v>
       </c>
       <c r="D124" s="1">
         <v>8230</v>
@@ -2825,8 +2846,9 @@
       <c r="E124" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J124" s="1"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>2017</v>
       </c>
@@ -2834,7 +2856,7 @@
         <v>51</v>
       </c>
       <c r="C125">
-        <v>2.31</v>
+        <v>231.6</v>
       </c>
       <c r="D125" s="1">
         <v>7944</v>
@@ -2842,8 +2864,9 @@
       <c r="E125" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>2017</v>
       </c>
@@ -2851,7 +2874,7 @@
         <v>53</v>
       </c>
       <c r="C126">
-        <v>1.91</v>
+        <v>191.1</v>
       </c>
       <c r="D126" s="1">
         <v>14820</v>
@@ -2859,8 +2882,9 @@
       <c r="E126" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>2017</v>
       </c>
@@ -2868,7 +2892,7 @@
         <v>55</v>
       </c>
       <c r="C127">
-        <v>1.55</v>
+        <v>155</v>
       </c>
       <c r="D127" s="1">
         <v>2164</v>
@@ -2876,8 +2900,9 @@
       <c r="E127" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>2017</v>
       </c>
@@ -2885,7 +2910,7 @@
         <v>57</v>
       </c>
       <c r="C128">
-        <v>1.49</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="D128" s="1">
         <v>3581</v>
@@ -2893,8 +2918,9 @@
       <c r="E128" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>2017</v>
       </c>
@@ -2902,7 +2928,7 @@
         <v>59</v>
       </c>
       <c r="C129">
-        <v>1.99</v>
+        <v>199.3</v>
       </c>
       <c r="D129" s="1">
         <v>6417</v>
@@ -2910,8 +2936,9 @@
       <c r="E129" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J129" s="1"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>2017</v>
       </c>
@@ -2919,7 +2946,7 @@
         <v>61</v>
       </c>
       <c r="C130">
-        <v>1.49</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="D130" s="1">
         <v>2721</v>
@@ -2927,8 +2954,9 @@
       <c r="E130" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>2017</v>
       </c>
@@ -2936,7 +2964,7 @@
         <v>63</v>
       </c>
       <c r="C131">
-        <v>1.62</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="D131" s="1">
         <v>18840</v>
@@ -2944,8 +2972,9 @@
       <c r="E131" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J131" s="1"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>2017</v>
       </c>
@@ -2953,7 +2982,7 @@
         <v>65</v>
       </c>
       <c r="C132">
-        <v>1.51</v>
+        <v>151.4</v>
       </c>
       <c r="D132" s="1">
         <v>3896</v>
@@ -2961,8 +2990,9 @@
       <c r="E132" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>2017</v>
       </c>
@@ -2970,7 +3000,7 @@
         <v>67</v>
       </c>
       <c r="C133">
-        <v>1.71</v>
+        <v>171.2</v>
       </c>
       <c r="D133" s="1">
         <v>44092</v>
@@ -2978,8 +3008,9 @@
       <c r="E133" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>2017</v>
       </c>
@@ -2987,7 +3018,7 @@
         <v>69</v>
       </c>
       <c r="C134">
-        <v>1.56</v>
+        <v>156.5</v>
       </c>
       <c r="D134" s="1">
         <v>18808</v>
@@ -2995,8 +3026,9 @@
       <c r="E134" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>2017</v>
       </c>
@@ -3004,7 +3036,7 @@
         <v>71</v>
       </c>
       <c r="C135">
-        <v>1.37</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="D135" s="1">
         <v>1326</v>
@@ -3012,8 +3044,9 @@
       <c r="E135" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>2017</v>
       </c>
@@ -3021,7 +3054,7 @@
         <v>73</v>
       </c>
       <c r="C136">
-        <v>1.86</v>
+        <v>186.2</v>
       </c>
       <c r="D136" s="1">
         <v>28008</v>
@@ -3029,8 +3062,9 @@
       <c r="E136" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>2017</v>
       </c>
@@ -3038,7 +3072,7 @@
         <v>75</v>
       </c>
       <c r="C137">
-        <v>2.37</v>
+        <v>237.2</v>
       </c>
       <c r="D137" s="1">
         <v>10772</v>
@@ -3046,8 +3080,9 @@
       <c r="E137" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>2017</v>
       </c>
@@ -3055,7 +3090,7 @@
         <v>77</v>
       </c>
       <c r="C138">
-        <v>1.34</v>
+        <v>134</v>
       </c>
       <c r="D138" s="1">
         <v>6942</v>
@@ -3063,8 +3098,9 @@
       <c r="E138" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J138" s="1"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>2017</v>
       </c>
@@ -3072,7 +3108,7 @@
         <v>79</v>
       </c>
       <c r="C139">
-        <v>1.76</v>
+        <v>176</v>
       </c>
       <c r="D139" s="1">
         <v>32312</v>
@@ -3080,8 +3116,9 @@
       <c r="E139" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J139" s="1"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>2017</v>
       </c>
@@ -3089,7 +3126,7 @@
         <v>81</v>
       </c>
       <c r="C140">
-        <v>1.55</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="D140" s="1">
         <v>2339</v>
@@ -3097,8 +3134,9 @@
       <c r="E140" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J140" s="1"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>2017</v>
       </c>
@@ -3106,7 +3144,7 @@
         <v>83</v>
       </c>
       <c r="C141">
-        <v>1.72</v>
+        <v>172</v>
       </c>
       <c r="D141" s="1">
         <v>10418</v>
@@ -3114,8 +3152,9 @@
       <c r="E141" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J141" s="1"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>2017</v>
       </c>
@@ -3123,7 +3162,7 @@
         <v>85</v>
       </c>
       <c r="C142">
-        <v>1.5</v>
+        <v>150.1</v>
       </c>
       <c r="D142" s="1">
         <v>1710</v>
@@ -3131,8 +3170,9 @@
       <c r="E142" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J142" s="1"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>2017</v>
       </c>
@@ -3140,7 +3180,7 @@
         <v>87</v>
       </c>
       <c r="C143">
-        <v>2.02</v>
+        <v>202.2</v>
       </c>
       <c r="D143" s="1">
         <v>16019</v>
@@ -3148,8 +3188,9 @@
       <c r="E143" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J143" s="1"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>2017</v>
       </c>
@@ -3157,7 +3198,7 @@
         <v>89</v>
       </c>
       <c r="C144">
-        <v>1.69</v>
+        <v>169.2</v>
       </c>
       <c r="D144" s="1">
         <v>45346</v>
@@ -3165,8 +3206,9 @@
       <c r="E144" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J144" s="1"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>2017</v>
       </c>
@@ -3174,7 +3216,7 @@
         <v>91</v>
       </c>
       <c r="C145">
-        <v>1.5</v>
+        <v>150.19999999999999</v>
       </c>
       <c r="D145" s="1">
         <v>3749</v>
@@ -3182,8 +3224,9 @@
       <c r="E145" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J145" s="1"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>2017</v>
       </c>
@@ -3191,7 +3234,7 @@
         <v>93</v>
       </c>
       <c r="C146">
-        <v>1.52</v>
+        <v>152.5</v>
       </c>
       <c r="D146" s="1">
         <v>1332</v>
@@ -3199,8 +3242,9 @@
       <c r="E146" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J146" s="1"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>2017</v>
       </c>
@@ -3208,7 +3252,7 @@
         <v>95</v>
       </c>
       <c r="C147">
-        <v>1.54</v>
+        <v>154.5</v>
       </c>
       <c r="D147" s="1">
         <v>14861</v>
@@ -3216,8 +3260,9 @@
       <c r="E147" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J147" s="1"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>2017</v>
       </c>
@@ -3225,7 +3270,7 @@
         <v>97</v>
       </c>
       <c r="C148">
-        <v>1.38</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="D148" s="1">
         <v>11582</v>
@@ -3233,8 +3278,9 @@
       <c r="E148" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J148" s="1"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>2017</v>
       </c>
@@ -3242,7 +3288,7 @@
         <v>99</v>
       </c>
       <c r="C149">
-        <v>1.92</v>
+        <v>192</v>
       </c>
       <c r="D149" s="1">
         <v>4849</v>
@@ -3250,8 +3296,9 @@
       <c r="E149" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J149" s="1"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>2017</v>
       </c>
@@ -3259,7 +3306,7 @@
         <v>101</v>
       </c>
       <c r="C150">
-        <v>1.57</v>
+        <v>157.6</v>
       </c>
       <c r="D150" s="1">
         <v>11860</v>
@@ -3267,8 +3314,9 @@
       <c r="E150" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J150" s="1"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>2017</v>
       </c>
@@ -3276,7 +3324,7 @@
         <v>103</v>
       </c>
       <c r="C151">
-        <v>1.48</v>
+        <v>148.9</v>
       </c>
       <c r="D151" s="1">
         <v>1001</v>
@@ -3284,8 +3332,9 @@
       <c r="E151" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>2016</v>
       </c>
@@ -3293,7 +3342,7 @@
         <v>5</v>
       </c>
       <c r="C152">
-        <v>2.2200000000000002</v>
+        <v>222.5</v>
       </c>
       <c r="D152" s="1">
         <v>12832</v>
@@ -3301,8 +3350,9 @@
       <c r="E152" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J152" s="1"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>2016</v>
       </c>
@@ -3310,7 +3360,7 @@
         <v>7</v>
       </c>
       <c r="C153">
-        <v>1.41</v>
+        <v>141</v>
       </c>
       <c r="D153">
         <v>831</v>
@@ -3319,7 +3369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>2016</v>
       </c>
@@ -3327,7 +3377,7 @@
         <v>9</v>
       </c>
       <c r="C154">
-        <v>1.38</v>
+        <v>138.9</v>
       </c>
       <c r="D154" s="1">
         <v>11957</v>
@@ -3335,8 +3385,9 @@
       <c r="E154" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J154" s="1"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>2016</v>
       </c>
@@ -3344,7 +3395,7 @@
         <v>11</v>
       </c>
       <c r="C155">
-        <v>2.23</v>
+        <v>223.7</v>
       </c>
       <c r="D155" s="1">
         <v>8090</v>
@@ -3352,8 +3403,9 @@
       <c r="E155" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J155" s="1"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>2016</v>
       </c>
@@ -3361,7 +3413,7 @@
         <v>13</v>
       </c>
       <c r="C156">
-        <v>1.43</v>
+        <v>143.1</v>
       </c>
       <c r="D156" s="1">
         <v>61573</v>
@@ -3369,8 +3421,9 @@
       <c r="E156" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J156" s="1"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>2016</v>
       </c>
@@ -3378,7 +3431,7 @@
         <v>15</v>
       </c>
       <c r="C157">
-        <v>1.29</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="D157" s="1">
         <v>7277</v>
@@ -3386,8 +3439,9 @@
       <c r="E157" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J157" s="1"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>2016</v>
       </c>
@@ -3395,7 +3449,7 @@
         <v>17</v>
       </c>
       <c r="C158">
-        <v>1.44</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="D158" s="1">
         <v>7051</v>
@@ -3403,8 +3457,9 @@
       <c r="E158" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J158" s="1"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>2016</v>
       </c>
@@ -3412,7 +3467,7 @@
         <v>19</v>
       </c>
       <c r="C159">
-        <v>1.63</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="D159" s="1">
         <v>1974</v>
@@ -3420,8 +3475,9 @@
       <c r="E159" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J159" s="1"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>2016</v>
       </c>
@@ -3429,7 +3485,7 @@
         <v>21</v>
       </c>
       <c r="C160">
-        <v>1.46</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="D160" s="1">
         <v>45659</v>
@@ -3437,8 +3493,9 @@
       <c r="E160" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J160" s="1"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>2016</v>
       </c>
@@ -3446,7 +3503,7 @@
         <v>23</v>
       </c>
       <c r="C161">
-        <v>1.79</v>
+        <v>179</v>
       </c>
       <c r="D161" s="1">
         <v>18143</v>
@@ -3454,8 +3511,9 @@
       <c r="E161" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J161" s="1"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>2016</v>
       </c>
@@ -3463,7 +3521,7 @@
         <v>25</v>
       </c>
       <c r="C162">
-        <v>1.27</v>
+        <v>127</v>
       </c>
       <c r="D162" s="1">
         <v>2488</v>
@@ -3471,8 +3529,9 @@
       <c r="E162" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J162" s="1"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>2016</v>
       </c>
@@ -3480,7 +3539,7 @@
         <v>27</v>
       </c>
       <c r="C163">
-        <v>1.6</v>
+        <v>160</v>
       </c>
       <c r="D163" s="1">
         <v>2969</v>
@@ -3488,8 +3547,9 @@
       <c r="E163" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J163" s="1"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>2016</v>
       </c>
@@ -3497,7 +3557,7 @@
         <v>29</v>
       </c>
       <c r="C164">
-        <v>1.65</v>
+        <v>165.7</v>
       </c>
       <c r="D164" s="1">
         <v>25013</v>
@@ -3505,8 +3565,9 @@
       <c r="E164" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J164" s="1"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>2016</v>
       </c>
@@ -3514,7 +3575,7 @@
         <v>31</v>
       </c>
       <c r="C165">
-        <v>1.8</v>
+        <v>180.6</v>
       </c>
       <c r="D165" s="1">
         <v>13952</v>
@@ -3522,8 +3583,9 @@
       <c r="E165" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J165" s="1"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>2016</v>
       </c>
@@ -3531,7 +3593,7 @@
         <v>33</v>
       </c>
       <c r="C166">
-        <v>1.62</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="D166" s="1">
         <v>6937</v>
@@ -3539,8 +3601,9 @@
       <c r="E166" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J166" s="1"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>2016</v>
       </c>
@@ -3548,7 +3611,7 @@
         <v>35</v>
       </c>
       <c r="C167">
-        <v>1.59</v>
+        <v>159.19999999999999</v>
       </c>
       <c r="D167" s="1">
         <v>5672</v>
@@ -3556,8 +3619,9 @@
       <c r="E167" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J167" s="1"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>2016</v>
       </c>
@@ -3565,7 +3629,7 @@
         <v>37</v>
       </c>
       <c r="C168">
-        <v>2.0299999999999998</v>
+        <v>203</v>
       </c>
       <c r="D168" s="1">
         <v>10519</v>
@@ -3573,8 +3637,9 @@
       <c r="E168" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J168" s="1"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>2016</v>
       </c>
@@ -3582,7 +3647,7 @@
         <v>39</v>
       </c>
       <c r="C169">
-        <v>2.13</v>
+        <v>213.1</v>
       </c>
       <c r="D169" s="1">
         <v>10943</v>
@@ -3590,8 +3655,9 @@
       <c r="E169" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J169" s="1"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>2016</v>
       </c>
@@ -3599,7 +3665,7 @@
         <v>41</v>
       </c>
       <c r="C170">
-        <v>1.49</v>
+        <v>149.5</v>
       </c>
       <c r="D170" s="1">
         <v>2907</v>
@@ -3607,8 +3673,9 @@
       <c r="E170" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J170" s="1"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>2016</v>
       </c>
@@ -3616,7 +3683,7 @@
         <v>43</v>
       </c>
       <c r="C171">
-        <v>1.64</v>
+        <v>164.3</v>
       </c>
       <c r="D171" s="1">
         <v>11390</v>
@@ -3624,8 +3691,9 @@
       <c r="E171" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J171" s="1"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>2016</v>
       </c>
@@ -3633,7 +3701,7 @@
         <v>45</v>
       </c>
       <c r="C172">
-        <v>1.34</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="D172" s="1">
         <v>11921</v>
@@ -3641,8 +3709,9 @@
       <c r="E172" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J172" s="1"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>2016</v>
       </c>
@@ -3650,7 +3719,7 @@
         <v>47</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>200.6</v>
       </c>
       <c r="D173" s="1">
         <v>25304</v>
@@ -3658,8 +3727,9 @@
       <c r="E173" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J173" s="1"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>2016</v>
       </c>
@@ -3667,7 +3737,7 @@
         <v>49</v>
       </c>
       <c r="C174">
-        <v>1.1399999999999999</v>
+        <v>114.9</v>
       </c>
       <c r="D174" s="1">
         <v>7825</v>
@@ -3675,8 +3745,9 @@
       <c r="E174" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J174" s="1"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>2016</v>
       </c>
@@ -3684,7 +3755,7 @@
         <v>51</v>
       </c>
       <c r="C175">
-        <v>2.33</v>
+        <v>233.1</v>
       </c>
       <c r="D175" s="1">
         <v>7865</v>
@@ -3692,8 +3763,9 @@
       <c r="E175" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J175" s="1"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>2016</v>
       </c>
@@ -3701,7 +3773,7 @@
         <v>53</v>
       </c>
       <c r="C176">
-        <v>1.92</v>
+        <v>192.1</v>
       </c>
       <c r="D176" s="1">
         <v>14579</v>
@@ -3709,8 +3781,9 @@
       <c r="E176" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J176" s="1"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>2016</v>
       </c>
@@ -3718,7 +3791,7 @@
         <v>55</v>
       </c>
       <c r="C177">
-        <v>1.54</v>
+        <v>154.4</v>
       </c>
       <c r="D177" s="1">
         <v>2138</v>
@@ -3726,8 +3799,9 @@
       <c r="E177" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J177" s="1"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>2016</v>
       </c>
@@ -3735,7 +3809,7 @@
         <v>57</v>
       </c>
       <c r="C178">
-        <v>1.4</v>
+        <v>140.30000000000001</v>
       </c>
       <c r="D178" s="1">
         <v>3322</v>
@@ -3743,8 +3817,9 @@
       <c r="E178" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J178" s="1"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>2016</v>
       </c>
@@ -3752,7 +3827,7 @@
         <v>59</v>
       </c>
       <c r="C179">
-        <v>2.0499999999999998</v>
+        <v>205.9</v>
       </c>
       <c r="D179" s="1">
         <v>6457</v>
@@ -3760,8 +3835,9 @@
       <c r="E179" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J179" s="1"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>2016</v>
       </c>
@@ -3769,7 +3845,7 @@
         <v>61</v>
       </c>
       <c r="C180">
-        <v>1.51</v>
+        <v>151.1</v>
       </c>
       <c r="D180" s="1">
         <v>2631</v>
@@ -3777,8 +3853,9 @@
       <c r="E180" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J180" s="1"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>2016</v>
       </c>
@@ -3786,7 +3863,7 @@
         <v>63</v>
       </c>
       <c r="C181">
-        <v>1.64</v>
+        <v>164.7</v>
       </c>
       <c r="D181" s="1">
         <v>18597</v>
@@ -3794,8 +3871,9 @@
       <c r="E181" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J181" s="1"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>2016</v>
       </c>
@@ -3803,7 +3881,7 @@
         <v>65</v>
       </c>
       <c r="C182">
-        <v>1.5</v>
+        <v>150.6</v>
       </c>
       <c r="D182" s="1">
         <v>3800</v>
@@ -3811,8 +3889,9 @@
       <c r="E182" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J182" s="1"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>2016</v>
       </c>
@@ -3820,7 +3899,7 @@
         <v>67</v>
       </c>
       <c r="C183">
-        <v>1.77</v>
+        <v>177.8</v>
       </c>
       <c r="D183" s="1">
         <v>44076</v>
@@ -3828,8 +3907,9 @@
       <c r="E183" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J183" s="1"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>2016</v>
       </c>
@@ -3837,7 +3917,7 @@
         <v>69</v>
       </c>
       <c r="C184">
-        <v>1.55</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="D184" s="1">
         <v>18266</v>
@@ -3845,8 +3925,9 @@
       <c r="E184" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J184" s="1"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>2016</v>
       </c>
@@ -3854,7 +3935,7 @@
         <v>71</v>
       </c>
       <c r="C185">
-        <v>1.4</v>
+        <v>140.9</v>
       </c>
       <c r="D185" s="1">
         <v>1338</v>
@@ -3862,8 +3943,9 @@
       <c r="E185" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J185" s="1"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>2016</v>
       </c>
@@ -3871,7 +3953,7 @@
         <v>73</v>
       </c>
       <c r="C186">
-        <v>1.85</v>
+        <v>185.1</v>
       </c>
       <c r="D186" s="1">
         <v>27410</v>
@@ -3879,8 +3961,9 @@
       <c r="E186" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J186" s="1"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>2016</v>
       </c>
@@ -3888,7 +3971,7 @@
         <v>75</v>
       </c>
       <c r="C187">
-        <v>2.2799999999999998</v>
+        <v>228.2</v>
       </c>
       <c r="D187" s="1">
         <v>10209</v>
@@ -3896,8 +3979,9 @@
       <c r="E187" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J187" s="1"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>2016</v>
       </c>
@@ -3905,7 +3989,7 @@
         <v>77</v>
       </c>
       <c r="C188">
-        <v>1.35</v>
+        <v>135</v>
       </c>
       <c r="D188" s="1">
         <v>6968</v>
@@ -3913,8 +3997,9 @@
       <c r="E188" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J188" s="1"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>2016</v>
       </c>
@@ -3922,7 +4007,7 @@
         <v>79</v>
       </c>
       <c r="C189">
-        <v>1.76</v>
+        <v>176.2</v>
       </c>
       <c r="D189" s="1">
         <v>31990</v>
@@ -3930,8 +4015,9 @@
       <c r="E189" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J189" s="1"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>2016</v>
       </c>
@@ -3939,7 +4025,7 @@
         <v>81</v>
       </c>
       <c r="C190">
-        <v>1.52</v>
+        <v>152.4</v>
       </c>
       <c r="D190" s="1">
         <v>2256</v>
@@ -3947,8 +4033,9 @@
       <c r="E190" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J190" s="1"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>2016</v>
       </c>
@@ -3956,7 +4043,7 @@
         <v>83</v>
       </c>
       <c r="C191">
-        <v>1.73</v>
+        <v>173.8</v>
       </c>
       <c r="D191" s="1">
         <v>10195</v>
@@ -3964,8 +4051,9 @@
       <c r="E191" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J191" s="1"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>2016</v>
       </c>
@@ -3973,7 +4061,7 @@
         <v>85</v>
       </c>
       <c r="C192">
-        <v>1.53</v>
+        <v>153.4</v>
       </c>
       <c r="D192" s="1">
         <v>1729</v>
@@ -3981,8 +4069,9 @@
       <c r="E192" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J192" s="1"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>2016</v>
       </c>
@@ -3990,7 +4079,7 @@
         <v>87</v>
       </c>
       <c r="C193">
-        <v>1.98</v>
+        <v>198.8</v>
       </c>
       <c r="D193" s="1">
         <v>15429</v>
@@ -3998,8 +4087,9 @@
       <c r="E193" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J193" s="1"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>2016</v>
       </c>
@@ -4007,7 +4097,7 @@
         <v>89</v>
       </c>
       <c r="C194">
-        <v>1.67</v>
+        <v>167.7</v>
       </c>
       <c r="D194" s="1">
         <v>43772</v>
@@ -4015,8 +4105,9 @@
       <c r="E194" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J194" s="1"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>2016</v>
       </c>
@@ -4024,7 +4115,7 @@
         <v>91</v>
       </c>
       <c r="C195">
-        <v>1.5</v>
+        <v>150</v>
       </c>
       <c r="D195" s="1">
         <v>3636</v>
@@ -4032,8 +4123,9 @@
       <c r="E195" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J195" s="1"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>2016</v>
       </c>
@@ -4041,7 +4133,7 @@
         <v>93</v>
       </c>
       <c r="C196">
-        <v>1.58</v>
+        <v>158.80000000000001</v>
       </c>
       <c r="D196" s="1">
         <v>1366</v>
@@ -4049,8 +4141,9 @@
       <c r="E196" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J196" s="1"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>2016</v>
       </c>
@@ -4058,7 +4151,7 @@
         <v>95</v>
       </c>
       <c r="C197">
-        <v>1.5</v>
+        <v>150.69999999999999</v>
       </c>
       <c r="D197" s="1">
         <v>14124</v>
@@ -4066,8 +4159,9 @@
       <c r="E197" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J197" s="1"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>2016</v>
       </c>
@@ -4075,7 +4169,7 @@
         <v>97</v>
       </c>
       <c r="C198">
-        <v>1.36</v>
+        <v>136.1</v>
       </c>
       <c r="D198" s="1">
         <v>11161</v>
@@ -4083,8 +4177,9 @@
       <c r="E198" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J198" s="1"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>2016</v>
       </c>
@@ -4092,7 +4187,7 @@
         <v>99</v>
       </c>
       <c r="C199">
-        <v>1.91</v>
+        <v>191</v>
       </c>
       <c r="D199" s="1">
         <v>4767</v>
@@ -4100,8 +4195,9 @@
       <c r="E199" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J199" s="1"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>2016</v>
       </c>
@@ -4109,7 +4205,7 @@
         <v>101</v>
       </c>
       <c r="C200">
-        <v>1.54</v>
+        <v>154.9</v>
       </c>
       <c r="D200" s="1">
         <v>11526</v>
@@ -4117,8 +4213,9 @@
       <c r="E200" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J200" s="1"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>2016</v>
       </c>
@@ -4126,7 +4223,7 @@
         <v>103</v>
       </c>
       <c r="C201">
-        <v>1.57</v>
+        <v>157.80000000000001</v>
       </c>
       <c r="D201" s="1">
         <v>1051</v>
@@ -4134,8 +4231,9 @@
       <c r="E201" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J201" s="1"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>2015</v>
       </c>
@@ -4143,7 +4241,7 @@
         <v>5</v>
       </c>
       <c r="C202">
-        <v>2.29</v>
+        <v>229.7</v>
       </c>
       <c r="D202" s="1">
         <v>12981</v>
@@ -4151,8 +4249,9 @@
       <c r="E202" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J202" s="1"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>2015</v>
       </c>
@@ -4160,7 +4259,7 @@
         <v>7</v>
       </c>
       <c r="C203">
-        <v>1.54</v>
+        <v>154.1</v>
       </c>
       <c r="D203">
         <v>846</v>
@@ -4169,7 +4268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>2015</v>
       </c>
@@ -4177,7 +4276,7 @@
         <v>9</v>
       </c>
       <c r="C204">
-        <v>1.38</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="D204" s="1">
         <v>11458</v>
@@ -4185,8 +4284,9 @@
       <c r="E204" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J204" s="1"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>2015</v>
       </c>
@@ -4194,7 +4294,7 @@
         <v>11</v>
       </c>
       <c r="C205">
-        <v>2.23</v>
+        <v>223.2</v>
       </c>
       <c r="D205" s="1">
         <v>7938</v>
@@ -4202,8 +4302,9 @@
       <c r="E205" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J205" s="1"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>2015</v>
       </c>
@@ -4211,7 +4312,7 @@
         <v>13</v>
       </c>
       <c r="C206">
-        <v>1.45</v>
+        <v>145.6</v>
       </c>
       <c r="D206" s="1">
         <v>61289</v>
@@ -4219,8 +4320,9 @@
       <c r="E206" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J206" s="1"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>2015</v>
       </c>
@@ -4228,7 +4330,7 @@
         <v>15</v>
       </c>
       <c r="C207">
-        <v>1.28</v>
+        <v>128.4</v>
       </c>
       <c r="D207" s="1">
         <v>7009</v>
@@ -4236,8 +4338,9 @@
       <c r="E207" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J207" s="1"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>2015</v>
       </c>
@@ -4245,7 +4348,7 @@
         <v>17</v>
       </c>
       <c r="C208">
-        <v>1.47</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="D208" s="1">
         <v>7205</v>
@@ -4253,8 +4356,9 @@
       <c r="E208" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J208" s="1"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>2015</v>
       </c>
@@ -4262,7 +4366,7 @@
         <v>19</v>
       </c>
       <c r="C209">
-        <v>1.65</v>
+        <v>165.2</v>
       </c>
       <c r="D209" s="1">
         <v>1940</v>
@@ -4270,8 +4374,9 @@
       <c r="E209" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J209" s="1"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>2015</v>
       </c>
@@ -4279,7 +4384,7 @@
         <v>21</v>
       </c>
       <c r="C210">
-        <v>1.49</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="D210" s="1">
         <v>45441</v>
@@ -4287,8 +4392,9 @@
       <c r="E210" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J210" s="1"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>2015</v>
       </c>
@@ -4296,7 +4402,7 @@
         <v>23</v>
       </c>
       <c r="C211">
-        <v>1.8</v>
+        <v>180.2</v>
       </c>
       <c r="D211" s="1">
         <v>17769</v>
@@ -4304,8 +4410,9 @@
       <c r="E211" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J211" s="1"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>2015</v>
       </c>
@@ -4313,7 +4420,7 @@
         <v>25</v>
       </c>
       <c r="C212">
-        <v>1.35</v>
+        <v>135.6</v>
       </c>
       <c r="D212" s="1">
         <v>2605</v>
@@ -4321,8 +4428,9 @@
       <c r="E212" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J212" s="1"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>2015</v>
       </c>
@@ -4330,7 +4438,7 @@
         <v>27</v>
       </c>
       <c r="C213">
-        <v>1.56</v>
+        <v>156.4</v>
       </c>
       <c r="D213" s="1">
         <v>2825</v>
@@ -4338,8 +4446,9 @@
       <c r="E213" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J213" s="1"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>2015</v>
       </c>
@@ -4347,7 +4456,7 @@
         <v>29</v>
       </c>
       <c r="C214">
-        <v>1.71</v>
+        <v>171.5</v>
       </c>
       <c r="D214" s="1">
         <v>25652</v>
@@ -4355,8 +4464,9 @@
       <c r="E214" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J214" s="1"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>2015</v>
       </c>
@@ -4364,7 +4474,7 @@
         <v>31</v>
       </c>
       <c r="C215">
-        <v>1.82</v>
+        <v>182.3</v>
       </c>
       <c r="D215" s="1">
         <v>13948</v>
@@ -4372,8 +4482,9 @@
       <c r="E215" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J215" s="1"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>2015</v>
       </c>
@@ -4381,7 +4492,7 @@
         <v>33</v>
       </c>
       <c r="C216">
-        <v>1.6</v>
+        <v>160.9</v>
       </c>
       <c r="D216" s="1">
         <v>6813</v>
@@ -4389,8 +4500,9 @@
       <c r="E216" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J216" s="1"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>2015</v>
       </c>
@@ -4398,7 +4510,7 @@
         <v>35</v>
       </c>
       <c r="C217">
-        <v>1.58</v>
+        <v>158.5</v>
       </c>
       <c r="D217" s="1">
         <v>5624</v>
@@ -4406,8 +4518,9 @@
       <c r="E217" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J217" s="1"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>2015</v>
       </c>
@@ -4415,7 +4528,7 @@
         <v>37</v>
       </c>
       <c r="C218">
-        <v>1.97</v>
+        <v>197.8</v>
       </c>
       <c r="D218" s="1">
         <v>10077</v>
@@ -4423,8 +4536,9 @@
       <c r="E218" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J218" s="1"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>2015</v>
       </c>
@@ -4432,7 +4546,7 @@
         <v>39</v>
       </c>
       <c r="C219">
-        <v>2.12</v>
+        <v>212.1</v>
       </c>
       <c r="D219" s="1">
         <v>10665</v>
@@ -4440,8 +4554,9 @@
       <c r="E219" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J219" s="1"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>2015</v>
       </c>
@@ -4449,7 +4564,7 @@
         <v>41</v>
       </c>
       <c r="C220">
-        <v>1.57</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="D220" s="1">
         <v>3009</v>
@@ -4457,8 +4572,9 @@
       <c r="E220" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J220" s="1"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>2015</v>
       </c>
@@ -4466,7 +4582,7 @@
         <v>43</v>
       </c>
       <c r="C221">
-        <v>1.69</v>
+        <v>169.3</v>
       </c>
       <c r="D221" s="1">
         <v>11481</v>
@@ -4474,8 +4590,9 @@
       <c r="E221" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J221" s="1"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>2015</v>
       </c>
@@ -4483,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="C222">
-        <v>1.38</v>
+        <v>138.5</v>
       </c>
       <c r="D222" s="1">
         <v>12130</v>
@@ -4491,8 +4608,9 @@
       <c r="E222" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J222" s="1"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>2015</v>
       </c>
@@ -4500,7 +4618,7 @@
         <v>47</v>
       </c>
       <c r="C223">
-        <v>1.98</v>
+        <v>198.9</v>
       </c>
       <c r="D223" s="1">
         <v>24794</v>
@@ -4508,8 +4626,9 @@
       <c r="E223" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J223" s="1"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>2015</v>
       </c>
@@ -4517,7 +4636,7 @@
         <v>49</v>
       </c>
       <c r="C224">
-        <v>1.1599999999999999</v>
+        <v>116.6</v>
       </c>
       <c r="D224" s="1">
         <v>7844</v>
@@ -4525,8 +4644,9 @@
       <c r="E224" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J224" s="1"/>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>2015</v>
       </c>
@@ -4534,7 +4654,7 @@
         <v>51</v>
       </c>
       <c r="C225">
-        <v>2.4</v>
+        <v>240.5</v>
       </c>
       <c r="D225" s="1">
         <v>7969</v>
@@ -4542,8 +4662,9 @@
       <c r="E225" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J225" s="1"/>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>2015</v>
       </c>
@@ -4551,7 +4672,7 @@
         <v>53</v>
       </c>
       <c r="C226">
-        <v>1.97</v>
+        <v>197.9</v>
       </c>
       <c r="D226" s="1">
         <v>14808</v>
@@ -4559,8 +4680,9 @@
       <c r="E226" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J226" s="1"/>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>2015</v>
       </c>
@@ -4568,7 +4690,7 @@
         <v>55</v>
       </c>
       <c r="C227">
-        <v>1.55</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="D227" s="1">
         <v>2104</v>
@@ -4576,8 +4698,9 @@
       <c r="E227" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J227" s="1"/>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>2015</v>
       </c>
@@ -4585,7 +4708,7 @@
         <v>57</v>
       </c>
       <c r="C228">
-        <v>1.54</v>
+        <v>154.5</v>
       </c>
       <c r="D228" s="1">
         <v>3591</v>
@@ -4593,8 +4716,9 @@
       <c r="E228" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J228" s="1"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>2015</v>
       </c>
@@ -4602,7 +4726,7 @@
         <v>59</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>200.9</v>
       </c>
       <c r="D229" s="1">
         <v>6114</v>
@@ -4610,8 +4734,9 @@
       <c r="E229" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J229" s="1"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>2015</v>
       </c>
@@ -4619,7 +4744,7 @@
         <v>61</v>
       </c>
       <c r="C230">
-        <v>1.49</v>
+        <v>149</v>
       </c>
       <c r="D230" s="1">
         <v>2571</v>
@@ -4627,8 +4752,9 @@
       <c r="E230" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J230" s="1"/>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>2015</v>
       </c>
@@ -4636,7 +4762,7 @@
         <v>63</v>
       </c>
       <c r="C231">
-        <v>1.66</v>
+        <v>166.7</v>
       </c>
       <c r="D231" s="1">
         <v>18647</v>
@@ -4644,8 +4770,9 @@
       <c r="E231" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J231" s="1"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>2015</v>
       </c>
@@ -4653,7 +4780,7 @@
         <v>65</v>
       </c>
       <c r="C232">
-        <v>1.42</v>
+        <v>142.4</v>
       </c>
       <c r="D232" s="1">
         <v>3508</v>
@@ -4661,8 +4788,9 @@
       <c r="E232" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J232" s="1"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>2015</v>
       </c>
@@ -4670,7 +4798,7 @@
         <v>67</v>
       </c>
       <c r="C233">
-        <v>1.81</v>
+        <v>181.6</v>
       </c>
       <c r="D233" s="1">
         <v>44450</v>
@@ -4678,8 +4806,9 @@
       <c r="E233" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J233" s="1"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>2015</v>
       </c>
@@ -4687,7 +4816,7 @@
         <v>69</v>
       </c>
       <c r="C234">
-        <v>1.62</v>
+        <v>162.4</v>
       </c>
       <c r="D234" s="1">
         <v>18474</v>
@@ -4695,8 +4824,9 @@
       <c r="E234" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J234" s="1"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>2015</v>
       </c>
@@ -4704,7 +4834,7 @@
         <v>71</v>
       </c>
       <c r="C235">
-        <v>1.42</v>
+        <v>142.4</v>
       </c>
       <c r="D235" s="1">
         <v>1323</v>
@@ -4712,8 +4842,9 @@
       <c r="E235" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J235" s="1"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>2015</v>
       </c>
@@ -4721,7 +4852,7 @@
         <v>73</v>
       </c>
       <c r="C236">
-        <v>1.91</v>
+        <v>191.7</v>
       </c>
       <c r="D236" s="1">
         <v>28069</v>
@@ -4729,8 +4860,9 @@
       <c r="E236" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J236" s="1"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>2015</v>
       </c>
@@ -4738,7 +4870,7 @@
         <v>75</v>
       </c>
       <c r="C237">
-        <v>2.34</v>
+        <v>234</v>
       </c>
       <c r="D237" s="1">
         <v>10310</v>
@@ -4746,8 +4878,9 @@
       <c r="E237" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J237" s="1"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>2015</v>
       </c>
@@ -4755,7 +4888,7 @@
         <v>77</v>
       </c>
       <c r="C238">
-        <v>1.36</v>
+        <v>136.1</v>
       </c>
       <c r="D238" s="1">
         <v>6859</v>
@@ -4763,8 +4896,9 @@
       <c r="E238" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J238" s="1"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>2015</v>
       </c>
@@ -4772,7 +4906,7 @@
         <v>79</v>
       </c>
       <c r="C239">
-        <v>1.77</v>
+        <v>177.8</v>
       </c>
       <c r="D239" s="1">
         <v>32042</v>
@@ -4780,8 +4914,9 @@
       <c r="E239" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J239" s="1"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>2015</v>
       </c>
@@ -4789,7 +4924,7 @@
         <v>81</v>
       </c>
       <c r="C240">
-        <v>1.6</v>
+        <v>160.4</v>
       </c>
       <c r="D240" s="1">
         <v>2371</v>
@@ -4797,8 +4932,9 @@
       <c r="E240" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J240" s="1"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>2015</v>
       </c>
@@ -4806,7 +4942,7 @@
         <v>83</v>
       </c>
       <c r="C241">
-        <v>1.77</v>
+        <v>177.8</v>
       </c>
       <c r="D241" s="1">
         <v>10092</v>
@@ -4814,8 +4950,9 @@
       <c r="E241" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J241" s="1"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>2015</v>
       </c>
@@ -4823,7 +4960,7 @@
         <v>85</v>
       </c>
       <c r="C242">
-        <v>1.5</v>
+        <v>150.9</v>
       </c>
       <c r="D242" s="1">
         <v>1711</v>
@@ -4831,8 +4968,9 @@
       <c r="E242" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J242" s="1"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>2015</v>
       </c>
@@ -4840,7 +4978,7 @@
         <v>87</v>
       </c>
       <c r="C243">
-        <v>2.0699999999999998</v>
+        <v>207.3</v>
       </c>
       <c r="D243" s="1">
         <v>15730</v>
@@ -4848,8 +4986,9 @@
       <c r="E243" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J243" s="1"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>2015</v>
       </c>
@@ -4857,7 +4996,7 @@
         <v>89</v>
       </c>
       <c r="C244">
-        <v>1.71</v>
+        <v>171.6</v>
       </c>
       <c r="D244" s="1">
         <v>43298</v>
@@ -4865,8 +5004,9 @@
       <c r="E244" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J244" s="1"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>2015</v>
       </c>
@@ -4874,7 +5014,7 @@
         <v>91</v>
       </c>
       <c r="C245">
-        <v>1.52</v>
+        <v>152.9</v>
       </c>
       <c r="D245" s="1">
         <v>3598</v>
@@ -4882,8 +5022,9 @@
       <c r="E245" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J245" s="1"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>2015</v>
       </c>
@@ -4891,7 +5032,7 @@
         <v>93</v>
       </c>
       <c r="C246">
-        <v>1.52</v>
+        <v>152.5</v>
       </c>
       <c r="D246" s="1">
         <v>1311</v>
@@ -4899,8 +5040,9 @@
       <c r="E246" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J246" s="1"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>2015</v>
       </c>
@@ -4908,7 +5050,7 @@
         <v>95</v>
       </c>
       <c r="C247">
-        <v>1.54</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="D247" s="1">
         <v>14077</v>
@@ -4916,8 +5058,9 @@
       <c r="E247" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J247" s="1"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>2015</v>
       </c>
@@ -4925,7 +5068,7 @@
         <v>97</v>
       </c>
       <c r="C248">
-        <v>1.37</v>
+        <v>137.6</v>
       </c>
       <c r="D248" s="1">
         <v>11025</v>
@@ -4933,8 +5076,9 @@
       <c r="E248" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J248" s="1"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>2015</v>
       </c>
@@ -4942,7 +5086,7 @@
         <v>99</v>
       </c>
       <c r="C249">
-        <v>1.91</v>
+        <v>191.3</v>
       </c>
       <c r="D249" s="1">
         <v>4727</v>
@@ -4950,8 +5094,9 @@
       <c r="E249" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J249" s="1"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>2015</v>
       </c>
@@ -4959,7 +5104,7 @@
         <v>101</v>
       </c>
       <c r="C250">
-        <v>1.56</v>
+        <v>156</v>
       </c>
       <c r="D250" s="1">
         <v>11473</v>
@@ -4967,8 +5112,9 @@
       <c r="E250" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J250" s="1"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>2015</v>
       </c>
@@ -4976,7 +5122,7 @@
         <v>103</v>
       </c>
       <c r="C251">
-        <v>1.59</v>
+        <v>159.4</v>
       </c>
       <c r="D251" s="1">
         <v>1030</v>
@@ -4984,8 +5130,9 @@
       <c r="E251" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J251" s="1"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>2014</v>
       </c>
@@ -4993,7 +5140,7 @@
         <v>5</v>
       </c>
       <c r="C252">
-        <v>2.2400000000000002</v>
+        <v>224</v>
       </c>
       <c r="D252" s="1">
         <v>12461</v>
@@ -5001,8 +5148,9 @@
       <c r="E252" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J252" s="1"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>2014</v>
       </c>
@@ -5010,7 +5158,7 @@
         <v>7</v>
       </c>
       <c r="C253">
-        <v>1.46</v>
+        <v>146.6</v>
       </c>
       <c r="D253">
         <v>782</v>
@@ -5019,7 +5167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>2014</v>
       </c>
@@ -5027,7 +5175,7 @@
         <v>9</v>
       </c>
       <c r="C254">
-        <v>1.36</v>
+        <v>136.4</v>
       </c>
       <c r="D254" s="1">
         <v>10805</v>
@@ -5035,8 +5183,9 @@
       <c r="E254" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J254" s="1"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>2014</v>
       </c>
@@ -5044,7 +5193,7 @@
         <v>11</v>
       </c>
       <c r="C255">
-        <v>2.17</v>
+        <v>217.5</v>
       </c>
       <c r="D255" s="1">
         <v>7581</v>
@@ -5052,8 +5201,9 @@
       <c r="E255" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J255" s="1"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>2014</v>
       </c>
@@ -5061,7 +5211,7 @@
         <v>13</v>
       </c>
       <c r="C256">
-        <v>1.42</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="D256" s="1">
         <v>58189</v>
@@ -5069,8 +5219,9 @@
       <c r="E256" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J256" s="1"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>2014</v>
       </c>
@@ -5078,7 +5229,7 @@
         <v>15</v>
       </c>
       <c r="C257">
-        <v>1.3</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="D257" s="1">
         <v>6900</v>
@@ -5086,8 +5237,9 @@
       <c r="E257" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J257" s="1"/>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>2014</v>
       </c>
@@ -5095,7 +5247,7 @@
         <v>17</v>
       </c>
       <c r="C258">
-        <v>1.45</v>
+        <v>145.6</v>
       </c>
       <c r="D258" s="1">
         <v>7018</v>
@@ -5103,8 +5255,9 @@
       <c r="E258" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J258" s="1"/>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>2014</v>
       </c>
@@ -5112,7 +5265,7 @@
         <v>19</v>
       </c>
       <c r="C259">
-        <v>1.68</v>
+        <v>168.7</v>
       </c>
       <c r="D259" s="1">
         <v>1921</v>
@@ -5120,8 +5273,9 @@
       <c r="E259" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J259" s="1"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>2014</v>
       </c>
@@ -5129,7 +5283,7 @@
         <v>21</v>
       </c>
       <c r="C260">
-        <v>1.51</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="D260" s="1">
         <v>44511</v>
@@ -5137,8 +5291,9 @@
       <c r="E260" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J260" s="1"/>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>2014</v>
       </c>
@@ -5146,7 +5301,7 @@
         <v>23</v>
       </c>
       <c r="C261">
-        <v>1.79</v>
+        <v>179.7</v>
       </c>
       <c r="D261" s="1">
         <v>17107</v>
@@ -5154,8 +5309,9 @@
       <c r="E261" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J261" s="1"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>2014</v>
       </c>
@@ -5163,7 +5319,7 @@
         <v>25</v>
       </c>
       <c r="C262">
-        <v>1.36</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="D262" s="1">
         <v>2528</v>
@@ -5171,8 +5327,9 @@
       <c r="E262" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J262" s="1"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>2014</v>
       </c>
@@ -5180,7 +5337,7 @@
         <v>27</v>
       </c>
       <c r="C263">
-        <v>1.52</v>
+        <v>152.80000000000001</v>
       </c>
       <c r="D263" s="1">
         <v>2676</v>
@@ -5188,8 +5345,9 @@
       <c r="E263" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J263" s="1"/>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>2014</v>
       </c>
@@ -5197,7 +5355,7 @@
         <v>29</v>
       </c>
       <c r="C264">
-        <v>1.69</v>
+        <v>169.7</v>
       </c>
       <c r="D264" s="1">
         <v>25024</v>
@@ -5205,8 +5363,9 @@
       <c r="E264" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J264" s="1"/>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>2014</v>
       </c>
@@ -5214,7 +5373,7 @@
         <v>31</v>
       </c>
       <c r="C265">
-        <v>1.82</v>
+        <v>182.7</v>
       </c>
       <c r="D265" s="1">
         <v>13764</v>
@@ -5222,8 +5381,9 @@
       <c r="E265" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J265" s="1"/>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>2014</v>
       </c>
@@ -5231,7 +5391,7 @@
         <v>33</v>
       </c>
       <c r="C266">
-        <v>1.57</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="D266" s="1">
         <v>6615</v>
@@ -5239,8 +5399,9 @@
       <c r="E266" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J266" s="1"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>2014</v>
       </c>
@@ -5248,7 +5409,7 @@
         <v>35</v>
       </c>
       <c r="C267">
-        <v>1.57</v>
+        <v>157.4</v>
       </c>
       <c r="D267" s="1">
         <v>5479</v>
@@ -5256,8 +5417,9 @@
       <c r="E267" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J267" s="1"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>2014</v>
       </c>
@@ -5265,7 +5427,7 @@
         <v>37</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>200.5</v>
       </c>
       <c r="D268" s="1">
         <v>10013</v>
@@ -5273,8 +5435,9 @@
       <c r="E268" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J268" s="1"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>2014</v>
       </c>
@@ -5282,7 +5445,7 @@
         <v>39</v>
       </c>
       <c r="C269">
-        <v>2.16</v>
+        <v>216.3</v>
       </c>
       <c r="D269" s="1">
         <v>10647</v>
@@ -5290,8 +5453,9 @@
       <c r="E269" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J269" s="1"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>2014</v>
       </c>
@@ -5299,7 +5463,7 @@
         <v>41</v>
       </c>
       <c r="C270">
-        <v>1.47</v>
+        <v>147.9</v>
       </c>
       <c r="D270" s="1">
         <v>2776</v>
@@ -5307,8 +5471,9 @@
       <c r="E270" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J270" s="1"/>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>2014</v>
       </c>
@@ -5316,7 +5481,7 @@
         <v>43</v>
       </c>
       <c r="C271">
-        <v>1.67</v>
+        <v>167.8</v>
       </c>
       <c r="D271" s="1">
         <v>11135</v>
@@ -5324,8 +5489,9 @@
       <c r="E271" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J271" s="1"/>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>2014</v>
       </c>
@@ -5333,7 +5499,7 @@
         <v>45</v>
       </c>
       <c r="C272">
-        <v>1.37</v>
+        <v>137.1</v>
       </c>
       <c r="D272" s="1">
         <v>11817</v>
@@ -5341,8 +5507,9 @@
       <c r="E272" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J272" s="1"/>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>2014</v>
       </c>
@@ -5350,7 +5517,7 @@
         <v>47</v>
       </c>
       <c r="C273">
-        <v>2</v>
+        <v>200.9</v>
       </c>
       <c r="D273" s="1">
         <v>24692</v>
@@ -5358,8 +5525,9 @@
       <c r="E273" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J273" s="1"/>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>2014</v>
       </c>
@@ -5367,7 +5535,7 @@
         <v>49</v>
       </c>
       <c r="C274">
-        <v>1.1599999999999999</v>
+        <v>116.5</v>
       </c>
       <c r="D274" s="1">
         <v>7659</v>
@@ -5375,8 +5543,9 @@
       <c r="E274" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J274" s="1"/>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>2014</v>
       </c>
@@ -5384,7 +5553,7 @@
         <v>51</v>
       </c>
       <c r="C275">
-        <v>2.29</v>
+        <v>229.9</v>
       </c>
       <c r="D275" s="1">
         <v>7538</v>
@@ -5392,8 +5561,9 @@
       <c r="E275" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J275" s="1"/>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>2014</v>
       </c>
@@ -5401,7 +5571,7 @@
         <v>53</v>
       </c>
       <c r="C276">
-        <v>1.94</v>
+        <v>194.7</v>
       </c>
       <c r="D276" s="1">
         <v>14338</v>
@@ -5409,8 +5579,9 @@
       <c r="E276" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J276" s="1"/>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>2014</v>
       </c>
@@ -5418,7 +5589,7 @@
         <v>55</v>
       </c>
       <c r="C277">
-        <v>1.47</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="D277" s="1">
         <v>1957</v>
@@ -5426,8 +5597,9 @@
       <c r="E277" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J277" s="1"/>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>2014</v>
       </c>
@@ -5435,7 +5607,7 @@
         <v>57</v>
       </c>
       <c r="C278">
-        <v>1.43</v>
+        <v>143</v>
       </c>
       <c r="D278" s="1">
         <v>3296</v>
@@ -5443,8 +5615,9 @@
       <c r="E278" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J278" s="1"/>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>2014</v>
       </c>
@@ -5452,7 +5625,7 @@
         <v>59</v>
       </c>
       <c r="C279">
-        <v>1.97</v>
+        <v>197.2</v>
       </c>
       <c r="D279" s="1">
         <v>5761</v>
@@ -5460,8 +5633,9 @@
       <c r="E279" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J279" s="1"/>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>2014</v>
       </c>
@@ -5469,7 +5643,7 @@
         <v>61</v>
       </c>
       <c r="C280">
-        <v>1.47</v>
+        <v>147.9</v>
       </c>
       <c r="D280" s="1">
         <v>2464</v>
@@ -5477,8 +5651,9 @@
       <c r="E280" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J280" s="1"/>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>2014</v>
       </c>
@@ -5486,7 +5661,7 @@
         <v>63</v>
       </c>
       <c r="C281">
-        <v>1.66</v>
+        <v>166.3</v>
       </c>
       <c r="D281" s="1">
         <v>18319</v>
@@ -5494,8 +5669,9 @@
       <c r="E281" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J281" s="1"/>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>2014</v>
       </c>
@@ -5503,7 +5679,7 @@
         <v>65</v>
       </c>
       <c r="C282">
-        <v>1.43</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="D282" s="1">
         <v>3424</v>
@@ -5511,8 +5687,9 @@
       <c r="E282" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J282" s="1"/>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>2014</v>
       </c>
@@ -5520,7 +5697,7 @@
         <v>67</v>
       </c>
       <c r="C283">
-        <v>1.78</v>
+        <v>178.3</v>
       </c>
       <c r="D283" s="1">
         <v>43116</v>
@@ -5528,8 +5705,9 @@
       <c r="E283" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J283" s="1"/>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>2014</v>
       </c>
@@ -5537,7 +5715,7 @@
         <v>69</v>
       </c>
       <c r="C284">
-        <v>1.58</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="D284" s="1">
         <v>17592</v>
@@ -5545,8 +5723,9 @@
       <c r="E284" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J284" s="1"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>2014</v>
       </c>
@@ -5554,7 +5733,7 @@
         <v>71</v>
       </c>
       <c r="C285">
-        <v>1.49</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="D285" s="1">
         <v>1381</v>
@@ -5562,8 +5741,9 @@
       <c r="E285" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J285" s="1"/>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>2014</v>
       </c>
@@ -5571,7 +5751,7 @@
         <v>73</v>
       </c>
       <c r="C286">
-        <v>1.86</v>
+        <v>186.4</v>
       </c>
       <c r="D286" s="1">
         <v>27000</v>
@@ -5579,8 +5759,9 @@
       <c r="E286" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J286" s="1"/>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>2014</v>
       </c>
@@ -5588,7 +5769,7 @@
         <v>75</v>
       </c>
       <c r="C287">
-        <v>2.2799999999999998</v>
+        <v>228.1</v>
       </c>
       <c r="D287" s="1">
         <v>9868</v>
@@ -5596,8 +5777,9 @@
       <c r="E287" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J287" s="1"/>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>2014</v>
       </c>
@@ -5605,7 +5787,7 @@
         <v>77</v>
       </c>
       <c r="C288">
-        <v>1.32</v>
+        <v>132.1</v>
       </c>
       <c r="D288" s="1">
         <v>6524</v>
@@ -5613,8 +5795,9 @@
       <c r="E288" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J288" s="1"/>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>2014</v>
       </c>
@@ -5622,7 +5805,7 @@
         <v>79</v>
       </c>
       <c r="C289">
-        <v>1.75</v>
+        <v>175.8</v>
       </c>
       <c r="D289" s="1">
         <v>31353</v>
@@ -5630,8 +5813,9 @@
       <c r="E289" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J289" s="1"/>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>2014</v>
       </c>
@@ -5639,7 +5823,7 @@
         <v>81</v>
       </c>
       <c r="C290">
-        <v>1.6</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="D290" s="1">
         <v>2341</v>
@@ -5647,8 +5831,9 @@
       <c r="E290" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J290" s="1"/>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>2014</v>
       </c>
@@ -5656,7 +5841,7 @@
         <v>83</v>
       </c>
       <c r="C291">
-        <v>1.81</v>
+        <v>181.1</v>
       </c>
       <c r="D291" s="1">
         <v>9964</v>
@@ -5664,8 +5849,9 @@
       <c r="E291" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J291" s="1"/>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>2014</v>
       </c>
@@ -5673,7 +5859,7 @@
         <v>85</v>
       </c>
       <c r="C292">
-        <v>1.54</v>
+        <v>154.6</v>
       </c>
       <c r="D292" s="1">
         <v>1704</v>
@@ -5681,8 +5867,9 @@
       <c r="E292" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J292" s="1"/>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>2014</v>
       </c>
@@ -5690,7 +5877,7 @@
         <v>87</v>
       </c>
       <c r="C293">
-        <v>2.0499999999999998</v>
+        <v>205.6</v>
       </c>
       <c r="D293" s="1">
         <v>15223</v>
@@ -5698,8 +5885,9 @@
       <c r="E293" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J293" s="1"/>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>2014</v>
       </c>
@@ -5707,7 +5895,7 @@
         <v>89</v>
       </c>
       <c r="C294">
-        <v>1.69</v>
+        <v>169.9</v>
       </c>
       <c r="D294" s="1">
         <v>41479</v>
@@ -5715,8 +5903,9 @@
       <c r="E294" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J294" s="1"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>2014</v>
       </c>
@@ -5724,7 +5913,7 @@
         <v>91</v>
       </c>
       <c r="C295">
-        <v>1.51</v>
+        <v>151</v>
       </c>
       <c r="D295" s="1">
         <v>3431</v>
@@ -5732,8 +5921,9 @@
       <c r="E295" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J295" s="1"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>2014</v>
       </c>
@@ -5741,7 +5931,7 @@
         <v>93</v>
       </c>
       <c r="C296">
-        <v>1.56</v>
+        <v>156.6</v>
       </c>
       <c r="D296" s="1">
         <v>1311</v>
@@ -5749,8 +5939,9 @@
       <c r="E296" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J296" s="1"/>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>2014</v>
       </c>
@@ -5758,7 +5949,7 @@
         <v>95</v>
       </c>
       <c r="C297">
-        <v>1.56</v>
+        <v>156.1</v>
       </c>
       <c r="D297" s="1">
         <v>13874</v>
@@ -5766,8 +5957,9 @@
       <c r="E297" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J297" s="1"/>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>2014</v>
       </c>
@@ -5775,7 +5967,7 @@
         <v>97</v>
       </c>
       <c r="C298">
-        <v>1.37</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="D298" s="1">
         <v>10710</v>
@@ -5783,8 +5975,9 @@
       <c r="E298" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J298" s="1"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>2014</v>
       </c>
@@ -5792,7 +5985,7 @@
         <v>99</v>
       </c>
       <c r="C299">
-        <v>1.92</v>
+        <v>192.9</v>
       </c>
       <c r="D299" s="1">
         <v>4692</v>
@@ -5800,8 +5993,9 @@
       <c r="E299" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J299" s="1"/>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>2014</v>
       </c>
@@ -5809,7 +6003,7 @@
         <v>101</v>
       </c>
       <c r="C300">
-        <v>1.55</v>
+        <v>155.1</v>
       </c>
       <c r="D300" s="1">
         <v>11229</v>
@@ -5817,8 +6011,9 @@
       <c r="E300" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J300" s="1"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>2014</v>
       </c>
@@ -5826,7 +6021,7 @@
         <v>103</v>
       </c>
       <c r="C301">
-        <v>1.62</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="D301" s="1">
         <v>1035</v>
@@ -5834,6 +6029,7 @@
       <c r="E301" t="s">
         <v>104</v>
       </c>
+      <c r="J301" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E301" xr:uid="{8CB68895-0BD3-4A9C-9E33-6777C15B88E8}"/>
